--- a/nlc/ipa-web-nlc_training.xlsx
+++ b/nlc/ipa-web-nlc_training.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38180" windowHeight="21040" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="2" r:id="rId1"/>
     <sheet name="original" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="186">
   <si>
     <t>Input</t>
   </si>
@@ -566,6 +566,21 @@
   </si>
   <si>
     <t>take a note</t>
+  </si>
+  <si>
+    <t>Schedule a meeting</t>
+  </si>
+  <si>
+    <t>I need to meet with * at *</t>
+  </si>
+  <si>
+    <t>Make a meeting with *</t>
+  </si>
+  <si>
+    <t>I want to meet at * with *</t>
+  </si>
+  <si>
+    <t>Arrange a meeting at *</t>
   </si>
 </sst>
 </file>
@@ -614,8 +629,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -666,7 +689,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -690,6 +713,10 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -713,6 +740,10 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1044,7 +1075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="A162" sqref="A162:B162"/>
     </sheetView>
   </sheetViews>
@@ -1295,1381 +1326,1381 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="str">
-        <f>original!A26</f>
+        <f>original!A31</f>
         <v>New meeting now</v>
       </c>
       <c r="B25" t="str">
-        <f>original!B26</f>
+        <f>original!B31</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="str">
-        <f>original!A27</f>
+        <f>original!A32</f>
         <v>Make a meeting</v>
       </c>
       <c r="B26" t="str">
-        <f>original!B27</f>
+        <f>original!B32</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="str">
-        <f>original!A28</f>
+        <f>original!A33</f>
         <v>Add meeting to schedule</v>
       </c>
       <c r="B27" t="str">
-        <f>original!B28</f>
+        <f>original!B33</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="str">
-        <f>original!A29</f>
+        <f>original!A34</f>
         <v>Add meeting to calendar</v>
       </c>
       <c r="B28" t="str">
-        <f>original!B29</f>
+        <f>original!B34</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="str">
-        <f>original!A30</f>
+        <f>original!A35</f>
         <v>Help me add a meeting to calendar</v>
       </c>
       <c r="B29" t="str">
-        <f>original!B30</f>
+        <f>original!B35</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="str">
-        <f>original!A31</f>
+        <f>original!A36</f>
         <v>Help me add meeting to schedule</v>
       </c>
       <c r="B30" t="str">
-        <f>original!B31</f>
+        <f>original!B36</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="str">
-        <f>original!A32</f>
+        <f>original!A37</f>
         <v>Schedule meeting for next *</v>
       </c>
       <c r="B31" t="str">
-        <f>original!B32</f>
+        <f>original!B37</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="str">
-        <f>original!A33</f>
+        <f>original!A38</f>
         <v>Schedule call for next *</v>
       </c>
       <c r="B32" t="str">
-        <f>original!B33</f>
+        <f>original!B38</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="str">
-        <f>original!A34</f>
+        <f>original!A39</f>
         <v>Schedule call for tomorrow</v>
       </c>
       <c r="B33" t="str">
-        <f>original!B34</f>
+        <f>original!B39</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="str">
-        <f>original!A35</f>
+        <f>original!A40</f>
         <v>Schedule call for Monday</v>
       </c>
       <c r="B34" t="str">
-        <f>original!B35</f>
+        <f>original!B40</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="str">
-        <f>original!A36</f>
+        <f>original!A41</f>
         <v>Schedule call for Tuesday</v>
       </c>
       <c r="B35" t="str">
-        <f>original!B36</f>
+        <f>original!B41</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="str">
-        <f>original!A37</f>
+        <f>original!A42</f>
         <v>I'd like to create a new meeting</v>
       </c>
       <c r="B36" t="str">
-        <f>original!B37</f>
+        <f>original!B42</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="str">
-        <f>original!A38</f>
+        <f>original!A43</f>
         <v>I'd like to schedule a meeting</v>
       </c>
       <c r="B37" t="str">
-        <f>original!B38</f>
+        <f>original!B43</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="str">
-        <f>original!A39</f>
+        <f>original!A44</f>
         <v>Schedule new meeting</v>
       </c>
       <c r="B38" t="str">
-        <f>original!B39</f>
+        <f>original!B44</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="str">
-        <f>original!A40</f>
+        <f>original!A45</f>
         <v>Can I schedule a meeting?</v>
       </c>
       <c r="B39" t="str">
-        <f>original!B40</f>
+        <f>original!B45</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="str">
-        <f>original!A41</f>
+        <f>original!A46</f>
         <v>Schedule a new call</v>
       </c>
       <c r="B40" t="str">
-        <f>original!B41</f>
+        <f>original!B46</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="str">
-        <f>original!A42</f>
+        <f>original!A47</f>
         <v>I'd like to schedule a call</v>
       </c>
       <c r="B41" t="str">
-        <f>original!B42</f>
+        <f>original!B47</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="str">
-        <f>original!A43</f>
+        <f>original!A48</f>
         <v>Please schedule a call for *</v>
       </c>
       <c r="B42" t="str">
-        <f>original!B43</f>
+        <f>original!B48</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="str">
-        <f>original!A44</f>
+        <f>original!A49</f>
         <v>Schedule call</v>
       </c>
       <c r="B43" t="str">
-        <f>original!B44</f>
+        <f>original!B49</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="str">
-        <f>original!A45</f>
+        <f>original!A50</f>
         <v>Schedule meeting</v>
       </c>
       <c r="B44" t="str">
-        <f>original!B45</f>
+        <f>original!B50</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="str">
-        <f>original!A46</f>
+        <f>original!A51</f>
         <v>Meeting, schedule</v>
       </c>
       <c r="B45" t="str">
-        <f>original!B46</f>
+        <f>original!B51</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="str">
-        <f>original!A47</f>
+        <f>original!A52</f>
         <v>Call, schedule</v>
       </c>
       <c r="B46" t="str">
-        <f>original!B47</f>
+        <f>original!B52</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="str">
-        <f>original!A48</f>
+        <f>original!A53</f>
         <v>New meeting</v>
       </c>
       <c r="B47" t="str">
-        <f>original!B48</f>
+        <f>original!B53</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="str">
-        <f>original!A49</f>
+        <f>original!A54</f>
         <v>Set up meeting with *</v>
       </c>
       <c r="B48" t="str">
-        <f>original!B49</f>
+        <f>original!B54</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="str">
-        <f>original!A50</f>
+        <f>original!A55</f>
         <v>Schedule</v>
       </c>
       <c r="B49" t="str">
-        <f>original!B50</f>
+        <f>original!B55</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="str">
-        <f>original!A51</f>
+        <f>original!A56</f>
         <v>Meeting</v>
       </c>
       <c r="B50" t="str">
-        <f>original!B51</f>
+        <f>original!B56</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="str">
-        <f>original!A52</f>
+        <f>original!A57</f>
         <v>Schedule new meeting</v>
       </c>
       <c r="B51" t="str">
-        <f>original!B52</f>
+        <f>original!B57</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="str">
-        <f>original!A53</f>
+        <f>original!A58</f>
         <v>Create a new meeting for next *</v>
       </c>
       <c r="B52" t="str">
-        <f>original!B53</f>
+        <f>original!B58</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="str">
-        <f>original!A54</f>
+        <f>original!A59</f>
         <v>Update schedule with meeting</v>
       </c>
       <c r="B53" t="str">
-        <f>original!B54</f>
+        <f>original!B59</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="str">
-        <f>original!A55</f>
+        <f>original!A60</f>
         <v>Update schedule to add call</v>
       </c>
       <c r="B54" t="str">
-        <f>original!B55</f>
+        <f>original!B60</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="str">
-        <f>original!A56</f>
+        <f>original!A61</f>
         <v>Create new time slot</v>
       </c>
       <c r="B55" t="str">
-        <f>original!B56</f>
+        <f>original!B61</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="str">
-        <f>original!A57</f>
+        <f>original!A62</f>
         <v>Add to calendar</v>
       </c>
       <c r="B56" t="str">
-        <f>original!B57</f>
+        <f>original!B62</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="str">
-        <f>original!A58</f>
+        <f>original!A63</f>
         <v>Schedule call for Wednesday</v>
       </c>
       <c r="B57" t="str">
-        <f>original!B58</f>
+        <f>original!B63</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="str">
-        <f>original!A59</f>
+        <f>original!A64</f>
         <v>Schedule call for Thursday</v>
       </c>
       <c r="B58" t="str">
-        <f>original!B59</f>
+        <f>original!B64</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="str">
-        <f>original!A60</f>
+        <f>original!A65</f>
         <v>Schedule call for Friday</v>
       </c>
       <c r="B59" t="str">
-        <f>original!B60</f>
+        <f>original!B65</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="str">
-        <f>original!A61</f>
+        <f>original!A66</f>
         <v>Schedule call for Saturday</v>
       </c>
       <c r="B60" t="str">
-        <f>original!B61</f>
+        <f>original!B66</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="str">
-        <f>original!A62</f>
+        <f>original!A67</f>
         <v>Schedule call for Sunday</v>
       </c>
       <c r="B61" t="str">
-        <f>original!B62</f>
+        <f>original!B67</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="str">
-        <f>original!A63</f>
+        <f>original!A68</f>
         <v xml:space="preserve">Reschedule call </v>
       </c>
       <c r="B62" t="str">
-        <f>original!B63</f>
+        <f>original!B68</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="str">
-        <f>original!A64</f>
+        <f>original!A69</f>
         <v>Reschedule meeting</v>
       </c>
       <c r="B63" t="str">
-        <f>original!B64</f>
+        <f>original!B69</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="str">
-        <f>original!A65</f>
+        <f>original!A70</f>
         <v>Update call time in calendar</v>
       </c>
       <c r="B64" t="str">
-        <f>original!B65</f>
+        <f>original!B70</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="str">
-        <f>original!A66</f>
+        <f>original!A71</f>
         <v>Update meeting time in calendar</v>
       </c>
       <c r="B65" t="str">
-        <f>original!B66</f>
+        <f>original!B71</f>
         <v>action-meeting-create</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="str">
-        <f>original!A67</f>
+        <f>original!A72</f>
         <v>Running late for my meeting</v>
       </c>
       <c r="B66" t="str">
-        <f>original!B67</f>
+        <f>original!B72</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="str">
-        <f>original!A68</f>
+        <f>original!A73</f>
         <v>Please call current meeting, running late</v>
       </c>
       <c r="B67" t="str">
-        <f>original!B68</f>
+        <f>original!B73</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="str">
-        <f>original!A69</f>
+        <f>original!A74</f>
         <v>Email current meeting that I'm running late</v>
       </c>
       <c r="B68" t="str">
-        <f>original!B69</f>
+        <f>original!B74</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="str">
-        <f>original!A70</f>
+        <f>original!A75</f>
         <v>Late for meeting. Notify team</v>
       </c>
       <c r="B69" t="str">
-        <f>original!B70</f>
+        <f>original!B75</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="str">
-        <f>original!A71</f>
+        <f>original!A76</f>
         <v>Ping team I'm running * minutes late</v>
       </c>
       <c r="B70" t="str">
-        <f>original!B71</f>
+        <f>original!B76</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="str">
-        <f>original!A72</f>
+        <f>original!A77</f>
         <v>Notify team I'm running late</v>
       </c>
       <c r="B71" t="str">
-        <f>original!B72</f>
+        <f>original!B77</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="str">
-        <f>original!A73</f>
+        <f>original!A78</f>
         <v>Notify team I'm running * mintues late</v>
       </c>
       <c r="B72" t="str">
-        <f>original!B73</f>
+        <f>original!B78</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="str">
-        <f>original!A74</f>
+        <f>original!A79</f>
         <v>Tell team on current call I'll join in * minutes</v>
       </c>
       <c r="B73" t="str">
-        <f>original!B74</f>
+        <f>original!B79</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="str">
-        <f>original!A75</f>
+        <f>original!A80</f>
         <v>Joining current call in * minutes</v>
       </c>
       <c r="B74" t="str">
-        <f>original!B75</f>
+        <f>original!B80</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="str">
-        <f>original!A76</f>
+        <f>original!A81</f>
         <v>Late for my meeting.  Ping team.</v>
       </c>
       <c r="B75" t="str">
-        <f>original!B76</f>
+        <f>original!B81</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="str">
-        <f>original!A77</f>
+        <f>original!A82</f>
         <v>Running late</v>
       </c>
       <c r="B76" t="str">
-        <f>original!B77</f>
+        <f>original!B82</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="str">
-        <f>original!A78</f>
+        <f>original!A83</f>
         <v>late for meeting, notify</v>
       </c>
       <c r="B77" t="str">
-        <f>original!B78</f>
+        <f>original!B83</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="str">
-        <f>original!A79</f>
+        <f>original!A84</f>
         <v>tell meeting participants I'm running late</v>
       </c>
       <c r="B78" t="str">
-        <f>original!B79</f>
+        <f>original!B84</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="str">
-        <f>original!A80</f>
+        <f>original!A85</f>
         <v>Running a few minutes late</v>
       </c>
       <c r="B79" t="str">
-        <f>original!B80</f>
+        <f>original!B85</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="str">
-        <f>original!A81</f>
+        <f>original!A86</f>
         <v>I'll be a few minutes late for call</v>
       </c>
       <c r="B80" t="str">
-        <f>original!B81</f>
+        <f>original!B86</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="str">
-        <f>original!A82</f>
+        <f>original!A87</f>
         <v>I'll be * minutes late for call</v>
       </c>
       <c r="B81" t="str">
-        <f>original!B82</f>
+        <f>original!B87</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="str">
-        <f>original!A83</f>
+        <f>original!A88</f>
         <v>Team notify that I'm delayed</v>
       </c>
       <c r="B82" t="str">
-        <f>original!B83</f>
+        <f>original!B88</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="str">
-        <f>original!A84</f>
+        <f>original!A89</f>
         <v>Joining team in * minutes</v>
       </c>
       <c r="B83" t="str">
-        <f>original!B84</f>
+        <f>original!B89</f>
         <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="str">
-        <f>original!A85</f>
+        <f>original!A90</f>
         <v>Add item to task list</v>
       </c>
       <c r="B84" t="str">
-        <f>original!B85</f>
+        <f>original!B90</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="str">
-        <f>original!A86</f>
+        <f>original!A91</f>
         <v>Add item to to-do list</v>
       </c>
       <c r="B85" t="str">
-        <f>original!B86</f>
+        <f>original!B91</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="str">
-        <f>original!A87</f>
+        <f>original!A92</f>
         <v>New action item</v>
       </c>
       <c r="B86" t="str">
-        <f>original!B87</f>
+        <f>original!B92</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="str">
-        <f>original!A88</f>
+        <f>original!A93</f>
         <v>New action item for list</v>
       </c>
       <c r="B87" t="str">
-        <f>original!B88</f>
+        <f>original!B93</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="str">
-        <f>original!A89</f>
+        <f>original!A94</f>
         <v xml:space="preserve">Action item </v>
       </c>
       <c r="B88" t="str">
-        <f>original!B89</f>
+        <f>original!B94</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="str">
-        <f>original!A90</f>
+        <f>original!A95</f>
         <v>New task</v>
       </c>
       <c r="B89" t="str">
-        <f>original!B90</f>
+        <f>original!B95</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="str">
-        <f>original!A91</f>
+        <f>original!A96</f>
         <v>update task</v>
       </c>
       <c r="B90" t="str">
-        <f>original!B91</f>
+        <f>original!B96</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="str">
-        <f>original!A92</f>
+        <f>original!A97</f>
         <v>add task</v>
       </c>
       <c r="B91" t="str">
-        <f>original!B92</f>
+        <f>original!B97</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="str">
-        <f>original!A93</f>
+        <f>original!A98</f>
         <v>to do *</v>
       </c>
       <c r="B92" t="str">
-        <f>original!B93</f>
+        <f>original!B98</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="str">
-        <f>original!A94</f>
+        <f>original!A99</f>
         <v>create new task</v>
       </c>
       <c r="B93" t="str">
-        <f>original!B94</f>
+        <f>original!B99</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="str">
-        <f>original!A95</f>
+        <f>original!A100</f>
         <v>add new task</v>
       </c>
       <c r="B94" t="str">
-        <f>original!B95</f>
+        <f>original!B100</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="str">
-        <f>original!A96</f>
+        <f>original!A101</f>
         <v>update task list</v>
       </c>
       <c r="B95" t="str">
-        <f>original!B96</f>
+        <f>original!B101</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="str">
-        <f>original!A97</f>
+        <f>original!A102</f>
         <v>task list update</v>
       </c>
       <c r="B96" t="str">
-        <f>original!B97</f>
+        <f>original!B102</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="str">
-        <f>original!A98</f>
+        <f>original!A103</f>
         <v>task list - new item</v>
       </c>
       <c r="B97" t="str">
-        <f>original!B98</f>
+        <f>original!B103</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="str">
-        <f>original!A99</f>
+        <f>original!A104</f>
         <v>new item for task list</v>
       </c>
       <c r="B98" t="str">
-        <f>original!B99</f>
+        <f>original!B104</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="str">
-        <f>original!A100</f>
+        <f>original!A105</f>
         <v>Reminder</v>
       </c>
       <c r="B99" t="str">
-        <f>original!B100</f>
+        <f>original!B105</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="str">
-        <f>original!A101</f>
+        <f>original!A106</f>
         <v>Reminder for task list</v>
       </c>
       <c r="B100" t="str">
-        <f>original!B101</f>
+        <f>original!B106</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="str">
-        <f>original!A102</f>
+        <f>original!A107</f>
         <v>add reminder for task list to *</v>
       </c>
       <c r="B101" t="str">
-        <f>original!B102</f>
+        <f>original!B107</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="str">
-        <f>original!A103</f>
+        <f>original!A108</f>
         <v>reminder to * add to task list</v>
       </c>
       <c r="B102" t="str">
-        <f>original!B103</f>
+        <f>original!B108</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="str">
-        <f>original!A104</f>
+        <f>original!A109</f>
         <v>personal assistant - add to task list</v>
       </c>
       <c r="B103" t="str">
-        <f>original!B104</f>
+        <f>original!B109</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="str">
-        <f>original!A105</f>
+        <f>original!A110</f>
         <v>take a note</v>
       </c>
       <c r="B104" t="str">
-        <f>original!B105</f>
+        <f>original!B110</f>
         <v>action-task-create</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="str">
-        <f>original!A106</f>
+        <f>original!A111</f>
         <v>knock knock</v>
       </c>
       <c r="B105" t="str">
-        <f>original!B106</f>
+        <f>original!B111</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="str">
-        <f>original!A107</f>
+        <f>original!A112</f>
         <v>Say something funny</v>
       </c>
       <c r="B106" t="str">
-        <f>original!B107</f>
+        <f>original!B112</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="str">
-        <f>original!A108</f>
+        <f>original!A113</f>
         <v>Tell me a joke</v>
       </c>
       <c r="B107" t="str">
-        <f>original!B108</f>
+        <f>original!B113</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="str">
-        <f>original!A109</f>
+        <f>original!A114</f>
         <v>cat rat sat bat mat</v>
       </c>
       <c r="B108" t="str">
-        <f>original!B109</f>
+        <f>original!B114</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="str">
-        <f>original!A110</f>
+        <f>original!A115</f>
         <v>roses are red violets are blue</v>
       </c>
       <c r="B109" t="str">
-        <f>original!B110</f>
+        <f>original!B115</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="str">
-        <f>original!A111</f>
+        <f>original!A116</f>
         <v>Tell me a haiku</v>
       </c>
       <c r="B110" t="str">
-        <f>original!B111</f>
+        <f>original!B116</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="str">
-        <f>original!A112</f>
+        <f>original!A117</f>
         <v>chicken or the egg?</v>
       </c>
       <c r="B111" t="str">
-        <f>original!B112</f>
+        <f>original!B117</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="str">
-        <f>original!A113</f>
+        <f>original!A118</f>
         <v>Tell me a riddle</v>
       </c>
       <c r="B112" t="str">
-        <f>original!B113</f>
+        <f>original!B118</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="str">
-        <f>original!A114</f>
+        <f>original!A119</f>
         <v>Tell me a story</v>
       </c>
       <c r="B113" t="str">
-        <f>original!B114</f>
+        <f>original!B119</f>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="str">
-        <f>original!A115</f>
+        <f>original!A120</f>
         <v>1 plus 1</v>
       </c>
       <c r="B114" t="str">
-        <f>original!B115</f>
+        <f>original!B120</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="str">
-        <f>original!A116</f>
+        <f>original!A121</f>
         <v>1+1</v>
       </c>
       <c r="B115" t="str">
-        <f>original!B116</f>
+        <f>original!B121</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="str">
-        <f>original!A117</f>
+        <f>original!A122</f>
         <v>1+1=?</v>
       </c>
       <c r="B116" t="str">
-        <f>original!B117</f>
+        <f>original!B122</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="str">
-        <f>original!A118</f>
+        <f>original!A123</f>
         <v>10 plus 10</v>
       </c>
       <c r="B117" t="str">
-        <f>original!B118</f>
+        <f>original!B123</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="str">
-        <f>original!A119</f>
+        <f>original!A124</f>
         <v>10 + 10 =</v>
       </c>
       <c r="B118" t="str">
-        <f>original!B119</f>
+        <f>original!B124</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="str">
-        <f>original!A120</f>
+        <f>original!A125</f>
         <v>10+10=?</v>
       </c>
       <c r="B119" t="str">
-        <f>original!B120</f>
+        <f>original!B125</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="str">
-        <f>original!A121</f>
+        <f>original!A126</f>
         <v>100 minus 10</v>
       </c>
       <c r="B120" t="str">
-        <f>original!B121</f>
+        <f>original!B126</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="str">
-        <f>original!A122</f>
+        <f>original!A127</f>
         <v>5 plus five</v>
       </c>
       <c r="B121" t="str">
-        <f>original!B122</f>
+        <f>original!B127</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="str">
-        <f>original!A123</f>
+        <f>original!A128</f>
         <v>a million plus a billion?</v>
       </c>
       <c r="B122" t="str">
-        <f>original!B123</f>
+        <f>original!B128</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="str">
-        <f>original!A124</f>
+        <f>original!A129</f>
         <v>infinity</v>
       </c>
       <c r="B123" t="str">
-        <f>original!B124</f>
+        <f>original!B129</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="str">
-        <f>original!A125</f>
+        <f>original!A130</f>
         <v>infinity / infinity</v>
       </c>
       <c r="B124" t="str">
-        <f>original!B125</f>
+        <f>original!B130</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="str">
-        <f>original!A126</f>
+        <f>original!A131</f>
         <v>infinity divided by zero</v>
       </c>
       <c r="B125" t="str">
-        <f>original!B126</f>
+        <f>original!B131</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="str">
-        <f>original!A127</f>
+        <f>original!A132</f>
         <v>infinity/infinity</v>
       </c>
       <c r="B126" t="str">
-        <f>original!B127</f>
+        <f>original!B132</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="str">
-        <f>original!A128</f>
+        <f>original!A133</f>
         <v>What is * divided by zero?</v>
       </c>
       <c r="B127" t="str">
-        <f>original!B128</f>
+        <f>original!B133</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="str">
-        <f>original!A129</f>
+        <f>original!A134</f>
         <v>What is 1/0?</v>
       </c>
       <c r="B128" t="str">
-        <f>original!B129</f>
+        <f>original!B134</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="str">
-        <f>original!A130</f>
+        <f>original!A135</f>
         <v>What is 1+1?</v>
       </c>
       <c r="B129" t="str">
-        <f>original!B130</f>
+        <f>original!B135</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
-        <f>original!A131</f>
+        <f>original!A136</f>
         <v>What is 2+2</v>
       </c>
       <c r="B130" t="str">
-        <f>original!B131</f>
+        <f>original!B136</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
-        <f>original!A132</f>
+        <f>original!A137</f>
         <v>what is nine plus fourteen?</v>
       </c>
       <c r="B131" t="str">
-        <f>original!B132</f>
+        <f>original!B137</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
-        <f>original!A133</f>
+        <f>original!A138</f>
         <v>'agk4'3k'p0f23k</v>
       </c>
       <c r="B132" t="str">
-        <f>original!B133</f>
+        <f>original!B138</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
-        <f>original!A134</f>
+        <f>original!A139</f>
         <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
       </c>
       <c r="B133" t="str">
-        <f>original!B134</f>
+        <f>original!B139</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
-        <f>original!A135</f>
+        <f>original!A140</f>
         <v>292-494f4</v>
       </c>
       <c r="B134" t="str">
-        <f>original!B135</f>
+        <f>original!B140</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
-        <f>original!A136</f>
+        <f>original!A141</f>
         <v>ajfskdw49urwe0w3ufiwel</v>
       </c>
       <c r="B135" t="str">
-        <f>original!B136</f>
+        <f>original!B141</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
-        <f>original!A137</f>
+        <f>original!A142</f>
         <v>asd f efwefjkw jkl</v>
       </c>
       <c r="B136" t="str">
-        <f>original!B137</f>
+        <f>original!B142</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
-        <f>original!A138</f>
+        <f>original!A143</f>
         <v>aslkdjal</v>
       </c>
       <c r="B137" t="str">
-        <f>original!B138</f>
+        <f>original!B143</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
-        <f>original!A139</f>
+        <f>original!A144</f>
         <v>jklfadsk23450923u u9q3uf203 9u</v>
       </c>
       <c r="B138" t="str">
-        <f>original!B139</f>
+        <f>original!B144</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
-        <f>original!A140</f>
+        <f>original!A145</f>
         <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
       </c>
       <c r="B139" t="str">
-        <f>original!B140</f>
+        <f>original!B145</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
-        <f>original!A141</f>
+        <f>original!A146</f>
         <v>blah blah blah</v>
       </c>
       <c r="B140" t="str">
-        <f>original!B141</f>
+        <f>original!B146</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
-        <f>original!A142</f>
+        <f>original!A147</f>
         <v>Is god real?</v>
       </c>
       <c r="B141" t="str">
-        <f>original!B142</f>
+        <f>original!B147</f>
         <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
-        <f>original!A143</f>
+        <f>original!A148</f>
         <v>What is the meaning of life?</v>
       </c>
       <c r="B142" t="str">
-        <f>original!B143</f>
+        <f>original!B148</f>
         <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
-        <f>original!A144</f>
+        <f>original!A149</f>
         <v>why do we die?</v>
       </c>
       <c r="B143" t="str">
-        <f>original!B144</f>
+        <f>original!B149</f>
         <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
-        <f>original!A145</f>
+        <f>original!A150</f>
         <v>why do we live?</v>
       </c>
       <c r="B144" t="str">
-        <f>original!B145</f>
+        <f>original!B150</f>
         <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
-        <f>original!A146</f>
+        <f>original!A151</f>
         <v>what is * in light years?</v>
       </c>
       <c r="B145" t="str">
-        <f>original!B146</f>
+        <f>original!B151</f>
         <v>respond-off-topic-science</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
-        <f>original!A147</f>
+        <f>original!A152</f>
         <v>I'm tired</v>
       </c>
       <c r="B146" t="str">
-        <f>original!B147</f>
+        <f>original!B152</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
-        <f>original!A148</f>
+        <f>original!A153</f>
         <v>I'm drunk</v>
       </c>
       <c r="B147" t="str">
-        <f>original!B148</f>
+        <f>original!B153</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
-        <f>original!A149</f>
+        <f>original!A154</f>
         <v>I'm naked</v>
       </c>
       <c r="B148" t="str">
-        <f>original!B149</f>
+        <f>original!B154</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
-        <f>original!A150</f>
+        <f>original!A155</f>
         <v>Talk dirty to me</v>
       </c>
       <c r="B149" t="str">
-        <f>original!B150</f>
+        <f>original!B155</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="str">
-        <f>original!A151</f>
+        <f>original!A156</f>
         <v>I love you</v>
       </c>
       <c r="B150" t="str">
-        <f>original!B151</f>
+        <f>original!B156</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="str">
-        <f>original!A152</f>
+        <f>original!A157</f>
         <v>Ask me a question</v>
       </c>
       <c r="B151" t="str">
-        <f>original!B152</f>
+        <f>original!B157</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="str">
-        <f>original!A153</f>
+        <f>original!A158</f>
         <v>i had a terrible day!</v>
       </c>
       <c r="B152" t="str">
-        <f>original!B153</f>
+        <f>original!B158</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="str">
-        <f>original!A154</f>
+        <f>original!A159</f>
         <v>I'm sad</v>
       </c>
       <c r="B153" t="str">
-        <f>original!B154</f>
+        <f>original!B159</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="str">
-        <f>original!A155</f>
+        <f>original!A160</f>
         <v>my computer broke!</v>
       </c>
       <c r="B154" t="str">
-        <f>original!B155</f>
+        <f>original!B160</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="str">
-        <f>original!A156</f>
+        <f>original!A161</f>
         <v>Do you have eyes?</v>
       </c>
       <c r="B155" t="str">
-        <f>original!B156</f>
+        <f>original!B161</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="str">
-        <f>original!A157</f>
+        <f>original!A162</f>
         <v>where is your hardware?</v>
       </c>
       <c r="B156" t="str">
-        <f>original!B157</f>
+        <f>original!B162</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="str">
-        <f>original!A158</f>
+        <f>original!A163</f>
         <v>are you happy?</v>
       </c>
       <c r="B157" t="str">
-        <f>original!B158</f>
+        <f>original!B163</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="str">
-        <f>original!A159</f>
+        <f>original!A164</f>
         <v>Do you follow the three laws of robotics?</v>
       </c>
       <c r="B158" t="str">
-        <f>original!B159</f>
+        <f>original!B164</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="str">
-        <f>original!A160</f>
+        <f>original!A165</f>
         <v>Do you have feelings?</v>
       </c>
       <c r="B159" t="str">
-        <f>original!B160</f>
+        <f>original!B165</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="str">
-        <f>original!A161</f>
+        <f>original!A166</f>
         <v>How old are you</v>
       </c>
       <c r="B160" t="str">
-        <f>original!B161</f>
+        <f>original!B166</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="str">
-        <f>original!A162</f>
+        <f>original!A167</f>
         <v>What is your favorite color?</v>
       </c>
       <c r="B161" t="str">
-        <f>original!B162</f>
+        <f>original!B167</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="str">
-        <f>original!A163</f>
+        <f>original!A168</f>
         <v>What's your favourite animal?</v>
       </c>
       <c r="B162" t="str">
-        <f>original!B163</f>
+        <f>original!B168</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
@@ -2686,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2719,7 +2750,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B33" si="0">CONCATENATE(C2,"-",D2,"-",E2)</f>
+        <f t="shared" ref="B2:B38" si="0">CONCATENATE(C2,"-",D2,"-",E2)</f>
         <v>action-email-create</v>
       </c>
       <c r="C2" t="s">
@@ -3148,7 +3179,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
@@ -3166,10 +3197,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B27:B29" si="1">CONCATENATE(C27,"-",D27,"-",E27)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C27" t="s">
@@ -3184,10 +3215,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C28" t="s">
@@ -3202,10 +3233,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>184</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C29" t="s">
@@ -3220,10 +3251,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B30" si="2">CONCATENATE(C30,"-",D30,"-",E30)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C30" t="s">
@@ -3238,7 +3269,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
@@ -3256,7 +3287,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
@@ -3274,7 +3305,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
@@ -3292,10 +3323,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" ref="B34:B65" si="1">CONCATENATE(C34,"-",D34,"-",E34)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C34" t="s">
@@ -3310,10 +3341,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C35" t="s">
@@ -3328,10 +3359,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C36" t="s">
@@ -3346,10 +3377,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C37" t="s">
@@ -3364,10 +3395,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C38" t="s">
@@ -3382,10 +3413,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B39:B70" si="3">CONCATENATE(C39,"-",D39,"-",E39)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C39" t="s">
@@ -3400,10 +3431,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C40" t="s">
@@ -3418,10 +3449,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C41" t="s">
@@ -3436,10 +3467,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C42" t="s">
@@ -3454,10 +3485,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C43" t="s">
@@ -3472,10 +3503,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C44" t="s">
@@ -3490,10 +3521,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C45" t="s">
@@ -3508,10 +3539,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C46" t="s">
@@ -3526,10 +3557,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C47" t="s">
@@ -3544,10 +3575,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C48" t="s">
@@ -3562,10 +3593,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C49" t="s">
@@ -3580,10 +3611,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C50" t="s">
@@ -3598,10 +3629,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C51" t="s">
@@ -3616,10 +3647,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C52" t="s">
@@ -3634,10 +3665,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C53" t="s">
@@ -3652,10 +3683,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C54" t="s">
@@ -3670,10 +3701,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C55" t="s">
@@ -3688,10 +3719,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C56" t="s">
@@ -3706,10 +3737,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>10</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C57" t="s">
@@ -3724,10 +3755,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C58" t="s">
@@ -3742,10 +3773,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C59" t="s">
@@ -3760,10 +3791,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C60" t="s">
@@ -3778,10 +3809,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C61" t="s">
@@ -3796,10 +3827,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C62" t="s">
@@ -3814,10 +3845,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C63" t="s">
@@ -3832,10 +3863,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C64" t="s">
@@ -3850,10 +3881,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C65" t="s">
@@ -3868,10 +3899,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B97" si="2">CONCATENATE(C66,"-",D66,"-",E66)</f>
+        <f t="shared" si="3"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C66" t="s">
@@ -3886,11 +3917,11 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="2"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="3"/>
+        <v>action-meeting-create</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
@@ -3899,16 +3930,16 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="2"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="3"/>
+        <v>action-meeting-create</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
@@ -3917,16 +3948,16 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="2"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="3"/>
+        <v>action-meeting-create</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -3935,16 +3966,16 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="2"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="3"/>
+        <v>action-meeting-create</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
@@ -3953,16 +3984,16 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" ref="B71:B102" si="4">CONCATENATE(C71,"-",D71,"-",E71)</f>
+        <v>action-meeting-create</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -3971,15 +4002,15 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C72" t="s">
@@ -3994,10 +4025,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C73" t="s">
@@ -4012,10 +4043,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C74" t="s">
@@ -4030,10 +4061,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C75" t="s">
@@ -4048,10 +4079,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C76" t="s">
@@ -4066,10 +4097,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C77" t="s">
@@ -4084,10 +4115,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C78" t="s">
@@ -4102,10 +4133,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C79" t="s">
@@ -4120,10 +4151,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C80" t="s">
@@ -4138,10 +4169,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C81" t="s">
@@ -4156,10 +4187,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C82" t="s">
@@ -4174,10 +4205,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C83" t="s">
@@ -4192,10 +4223,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C84" t="s">
@@ -4210,100 +4241,100 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="2"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="2"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="2"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="2"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="2"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C90" t="s">
@@ -4318,10 +4349,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C91" t="s">
@@ -4336,10 +4367,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C92" t="s">
@@ -4354,10 +4385,10 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C93" t="s">
@@ -4372,10 +4403,10 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C94" t="s">
@@ -4390,10 +4421,10 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C95" t="s">
@@ -4408,10 +4439,10 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C96" t="s">
@@ -4426,10 +4457,10 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C97" t="s">
@@ -4444,10 +4475,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" ref="B98:B129" si="3">CONCATENATE(C98,"-",D98,"-",E98)</f>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C98" t="s">
@@ -4462,10 +4493,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C99" t="s">
@@ -4480,10 +4511,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C100" t="s">
@@ -4498,10 +4529,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C101" t="s">
@@ -4516,10 +4547,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>action-task-create</v>
       </c>
       <c r="C102" t="s">
@@ -4534,10 +4565,10 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B103:B134" si="5">CONCATENATE(C103,"-",D103,"-",E103)</f>
         <v>action-task-create</v>
       </c>
       <c r="C103" t="s">
@@ -4552,10 +4583,10 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>action-task-create</v>
       </c>
       <c r="C104" t="s">
@@ -4570,10 +4601,10 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>action-task-create</v>
       </c>
       <c r="C105" t="s">
@@ -4588,100 +4619,100 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>action-task-create</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E106" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>action-task-create</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E107" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>action-task-create</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E108" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>action-task-create</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E109" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>action-task-create</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C111" t="s">
@@ -4696,10 +4727,10 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C112" t="s">
@@ -4714,10 +4745,10 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C113" t="s">
@@ -4732,10 +4763,10 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C114" t="s">
@@ -4750,11 +4781,11 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C115" t="s">
         <v>101</v>
@@ -4763,16 +4794,16 @@
         <v>102</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C116" t="s">
         <v>101</v>
@@ -4781,16 +4812,16 @@
         <v>102</v>
       </c>
       <c r="E116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C117" t="s">
         <v>101</v>
@@ -4799,16 +4830,16 @@
         <v>102</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C118" t="s">
         <v>101</v>
@@ -4817,16 +4848,16 @@
         <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C119" t="s">
         <v>101</v>
@@ -4835,15 +4866,15 @@
         <v>102</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C120" t="s">
@@ -4858,10 +4889,10 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C121" t="s">
@@ -4876,10 +4907,10 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C122" t="s">
@@ -4894,10 +4925,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C123" t="s">
@@ -4912,10 +4943,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C124" t="s">
@@ -4930,10 +4961,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C125" t="s">
@@ -4948,10 +4979,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C126" t="s">
@@ -4966,10 +4997,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C127" t="s">
@@ -4984,10 +5015,10 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C128" t="s">
@@ -5002,10 +5033,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C129" t="s">
@@ -5020,10 +5051,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" ref="B130:B161" si="4">CONCATENATE(C130,"-",D130,"-",E130)</f>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C130" t="s">
@@ -5038,10 +5069,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C131" t="s">
@@ -5056,10 +5087,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C132" t="s">
@@ -5074,11 +5105,11 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C133" t="s">
         <v>101</v>
@@ -5087,16 +5118,16 @@
         <v>102</v>
       </c>
       <c r="E133" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C134" t="s">
         <v>101</v>
@@ -5105,16 +5136,16 @@
         <v>102</v>
       </c>
       <c r="E134" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" ref="B135:B166" si="6">CONCATENATE(C135,"-",D135,"-",E135)</f>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C135" t="s">
         <v>101</v>
@@ -5123,16 +5154,16 @@
         <v>102</v>
       </c>
       <c r="E135" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C136" t="s">
         <v>101</v>
@@ -5141,16 +5172,16 @@
         <v>102</v>
       </c>
       <c r="E136" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C137" t="s">
         <v>101</v>
@@ -5159,15 +5190,15 @@
         <v>102</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C138" t="s">
@@ -5182,10 +5213,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C139" t="s">
@@ -5200,10 +5231,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C140" t="s">
@@ -5218,10 +5249,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C141" t="s">
@@ -5236,11 +5267,11 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C142" t="s">
         <v>101</v>
@@ -5249,16 +5280,16 @@
         <v>102</v>
       </c>
       <c r="E142" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C143" t="s">
         <v>101</v>
@@ -5267,16 +5298,16 @@
         <v>102</v>
       </c>
       <c r="E143" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C144" t="s">
         <v>101</v>
@@ -5285,16 +5316,16 @@
         <v>102</v>
       </c>
       <c r="E144" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C145" t="s">
         <v>101</v>
@@ -5303,16 +5334,16 @@
         <v>102</v>
       </c>
       <c r="E145" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-science</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C146" t="s">
         <v>101</v>
@@ -5321,16 +5352,16 @@
         <v>102</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C147" t="s">
         <v>101</v>
@@ -5339,16 +5370,16 @@
         <v>102</v>
       </c>
       <c r="E147" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C148" t="s">
         <v>101</v>
@@ -5357,16 +5388,16 @@
         <v>102</v>
       </c>
       <c r="E148" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C149" t="s">
         <v>101</v>
@@ -5375,16 +5406,16 @@
         <v>102</v>
       </c>
       <c r="E149" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C150" t="s">
         <v>101</v>
@@ -5393,16 +5424,16 @@
         <v>102</v>
       </c>
       <c r="E150" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-science</v>
       </c>
       <c r="C151" t="s">
         <v>101</v>
@@ -5411,15 +5442,15 @@
         <v>102</v>
       </c>
       <c r="E151" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C152" t="s">
@@ -5434,10 +5465,10 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C153" t="s">
@@ -5452,10 +5483,10 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C154" t="s">
@@ -5470,10 +5501,10 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C155" t="s">
@@ -5488,11 +5519,11 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C156" t="s">
         <v>101</v>
@@ -5501,16 +5532,16 @@
         <v>102</v>
       </c>
       <c r="E156" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C157" t="s">
         <v>101</v>
@@ -5519,16 +5550,16 @@
         <v>102</v>
       </c>
       <c r="E157" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C158" t="s">
         <v>101</v>
@@ -5537,16 +5568,16 @@
         <v>102</v>
       </c>
       <c r="E158" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C159" t="s">
         <v>101</v>
@@ -5555,16 +5586,16 @@
         <v>102</v>
       </c>
       <c r="E159" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B160" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C160" t="s">
         <v>101</v>
@@ -5573,15 +5604,15 @@
         <v>102</v>
       </c>
       <c r="E160" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C161" t="s">
@@ -5596,10 +5627,10 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B162" t="str">
-        <f t="shared" ref="B162:B193" si="5">CONCATENATE(C162,"-",D162,"-",E162)</f>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C162" t="s">
@@ -5614,10 +5645,10 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C163" t="s">
@@ -5630,8 +5661,98 @@
         <v>111</v>
       </c>
     </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>96</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C164" t="s">
+        <v>101</v>
+      </c>
+      <c r="D164" t="s">
+        <v>102</v>
+      </c>
+      <c r="E164" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>97</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C165" t="s">
+        <v>101</v>
+      </c>
+      <c r="D165" t="s">
+        <v>102</v>
+      </c>
+      <c r="E165" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>98</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C166" t="s">
+        <v>101</v>
+      </c>
+      <c r="D166" t="s">
+        <v>102</v>
+      </c>
+      <c r="E166" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>99</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" ref="B167:B168" si="7">CONCATENATE(C167,"-",D167,"-",E167)</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C167" t="s">
+        <v>101</v>
+      </c>
+      <c r="D167" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>100</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C168" t="s">
+        <v>101</v>
+      </c>
+      <c r="D168" t="s">
+        <v>102</v>
+      </c>
+      <c r="E168" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E109">
+  <autoFilter ref="A1:E114">
     <sortState ref="A2:E163">
       <sortCondition ref="B1:B163"/>
     </sortState>

--- a/nlc/ipa-web-nlc_training.xlsx
+++ b/nlc/ipa-web-nlc_training.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38180" windowHeight="21040" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="2" r:id="rId1"/>
     <sheet name="original" sheetId="1" r:id="rId2"/>
+    <sheet name="Saved" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$96</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -629,8 +630,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -689,7 +696,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -717,6 +724,9 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -744,6 +754,9 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1073,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A162" sqref="A162:B162"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1326,1381 +1339,1251 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="str">
+        <f>original!A26</f>
+        <v>Schedule a meeting</v>
+      </c>
+      <c r="B25" t="str">
+        <f>original!B26</f>
+        <v>action-meeting-create</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="str">
+        <f>original!A27</f>
+        <v>Arrange a meeting at *</v>
+      </c>
+      <c r="B26" t="str">
+        <f>original!B27</f>
+        <v>action-meeting-create</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="str">
+        <f>original!A28</f>
+        <v>Make a meeting with *</v>
+      </c>
+      <c r="B27" t="str">
+        <f>original!B28</f>
+        <v>action-meeting-create</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="str">
+        <f>original!A29</f>
+        <v>I want to meet at * with *</v>
+      </c>
+      <c r="B28" t="str">
+        <f>original!B29</f>
+        <v>action-meeting-create</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="str">
+        <f>original!A30</f>
+        <v>I need to meet with * at *</v>
+      </c>
+      <c r="B29" t="str">
+        <f>original!B30</f>
+        <v>action-meeting-create</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="str">
         <f>original!A31</f>
         <v>New meeting now</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B30" t="str">
         <f>original!B31</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="str">
+    <row r="31" spans="1:2">
+      <c r="A31" t="str">
         <f>original!A32</f>
         <v>Make a meeting</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B31" t="str">
         <f>original!B32</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="str">
+    <row r="32" spans="1:2">
+      <c r="A32" t="str">
         <f>original!A33</f>
         <v>Add meeting to schedule</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B32" t="str">
         <f>original!B33</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="str">
+    <row r="33" spans="1:2">
+      <c r="A33" t="str">
         <f>original!A34</f>
         <v>Add meeting to calendar</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B33" t="str">
         <f>original!B34</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="str">
+    <row r="34" spans="1:2">
+      <c r="A34" t="str">
         <f>original!A35</f>
         <v>Help me add a meeting to calendar</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B34" t="str">
         <f>original!B35</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="str">
+    <row r="35" spans="1:2">
+      <c r="A35" t="str">
         <f>original!A36</f>
         <v>Help me add meeting to schedule</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B35" t="str">
         <f>original!B36</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="str">
+    <row r="36" spans="1:2">
+      <c r="A36" t="str">
         <f>original!A37</f>
         <v>Schedule meeting for next *</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B36" t="str">
         <f>original!B37</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="str">
+    <row r="37" spans="1:2">
+      <c r="A37" t="str">
         <f>original!A38</f>
         <v>Schedule call for next *</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B37" t="str">
         <f>original!B38</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="str">
+    <row r="38" spans="1:2">
+      <c r="A38" t="str">
         <f>original!A39</f>
         <v>Schedule call for tomorrow</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B38" t="str">
         <f>original!B39</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="str">
+    <row r="39" spans="1:2">
+      <c r="A39" t="str">
         <f>original!A40</f>
         <v>Schedule call for Monday</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B39" t="str">
         <f>original!B40</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="str">
+    <row r="40" spans="1:2">
+      <c r="A40" t="str">
         <f>original!A41</f>
         <v>Schedule call for Tuesday</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B40" t="str">
         <f>original!B41</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="str">
+    <row r="41" spans="1:2">
+      <c r="A41" t="str">
         <f>original!A42</f>
         <v>I'd like to create a new meeting</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B41" t="str">
         <f>original!B42</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="str">
+    <row r="42" spans="1:2">
+      <c r="A42" t="str">
         <f>original!A43</f>
         <v>I'd like to schedule a meeting</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B42" t="str">
         <f>original!B43</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="str">
+    <row r="43" spans="1:2">
+      <c r="A43" t="str">
         <f>original!A44</f>
         <v>Schedule new meeting</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B43" t="str">
         <f>original!B44</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="str">
+    <row r="44" spans="1:2">
+      <c r="A44" t="str">
         <f>original!A45</f>
         <v>Can I schedule a meeting?</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B44" t="str">
         <f>original!B45</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="str">
+    <row r="45" spans="1:2">
+      <c r="A45" t="str">
         <f>original!A46</f>
         <v>Schedule a new call</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B45" t="str">
         <f>original!B46</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="str">
+    <row r="46" spans="1:2">
+      <c r="A46" t="str">
         <f>original!A47</f>
         <v>I'd like to schedule a call</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B46" t="str">
         <f>original!B47</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="str">
+    <row r="47" spans="1:2">
+      <c r="A47" t="str">
         <f>original!A48</f>
         <v>Please schedule a call for *</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B47" t="str">
         <f>original!B48</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="str">
+    <row r="48" spans="1:2">
+      <c r="A48" t="str">
         <f>original!A49</f>
         <v>Schedule call</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B48" t="str">
         <f>original!B49</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="str">
+    <row r="49" spans="1:2">
+      <c r="A49" t="str">
         <f>original!A50</f>
         <v>Schedule meeting</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B49" t="str">
         <f>original!B50</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="str">
+    <row r="50" spans="1:2">
+      <c r="A50" t="str">
         <f>original!A51</f>
         <v>Meeting, schedule</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B50" t="str">
         <f>original!B51</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="str">
+    <row r="51" spans="1:2">
+      <c r="A51" t="str">
         <f>original!A52</f>
         <v>Call, schedule</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B51" t="str">
         <f>original!B52</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="str">
+    <row r="52" spans="1:2">
+      <c r="A52" t="str">
         <f>original!A53</f>
         <v>New meeting</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B52" t="str">
         <f>original!B53</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="str">
+    <row r="53" spans="1:2">
+      <c r="A53" t="str">
         <f>original!A54</f>
         <v>Set up meeting with *</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B53" t="str">
         <f>original!B54</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="str">
+    <row r="54" spans="1:2">
+      <c r="A54" t="str">
         <f>original!A55</f>
         <v>Schedule</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B54" t="str">
         <f>original!B55</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="str">
+    <row r="55" spans="1:2">
+      <c r="A55" t="str">
         <f>original!A56</f>
         <v>Meeting</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B55" t="str">
         <f>original!B56</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="str">
+    <row r="56" spans="1:2">
+      <c r="A56" t="str">
         <f>original!A57</f>
         <v>Schedule new meeting</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B56" t="str">
         <f>original!B57</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="str">
+    <row r="57" spans="1:2">
+      <c r="A57" t="str">
         <f>original!A58</f>
         <v>Create a new meeting for next *</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B57" t="str">
         <f>original!B58</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="str">
+    <row r="58" spans="1:2">
+      <c r="A58" t="str">
         <f>original!A59</f>
         <v>Update schedule with meeting</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B58" t="str">
         <f>original!B59</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="str">
+    <row r="59" spans="1:2">
+      <c r="A59" t="str">
         <f>original!A60</f>
         <v>Update schedule to add call</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B59" t="str">
         <f>original!B60</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="str">
+    <row r="60" spans="1:2">
+      <c r="A60" t="str">
         <f>original!A61</f>
         <v>Create new time slot</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B60" t="str">
         <f>original!B61</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="str">
+    <row r="61" spans="1:2">
+      <c r="A61" t="str">
         <f>original!A62</f>
         <v>Add to calendar</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B61" t="str">
         <f>original!B62</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="str">
+    <row r="62" spans="1:2">
+      <c r="A62" t="str">
         <f>original!A63</f>
         <v>Schedule call for Wednesday</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B62" t="str">
         <f>original!B63</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="str">
+    <row r="63" spans="1:2">
+      <c r="A63" t="str">
         <f>original!A64</f>
         <v>Schedule call for Thursday</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B63" t="str">
         <f>original!B64</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="str">
+    <row r="64" spans="1:2">
+      <c r="A64" t="str">
         <f>original!A65</f>
         <v>Schedule call for Friday</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B64" t="str">
         <f>original!B65</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="str">
+    <row r="65" spans="1:2">
+      <c r="A65" t="str">
         <f>original!A66</f>
         <v>Schedule call for Saturday</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B65" t="str">
         <f>original!B66</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="str">
+    <row r="66" spans="1:2">
+      <c r="A66" t="str">
         <f>original!A67</f>
         <v>Schedule call for Sunday</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B66" t="str">
         <f>original!B67</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="str">
+    <row r="67" spans="1:2">
+      <c r="A67" t="str">
         <f>original!A68</f>
         <v xml:space="preserve">Reschedule call </v>
       </c>
-      <c r="B62" t="str">
+      <c r="B67" t="str">
         <f>original!B68</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="str">
+    <row r="68" spans="1:2">
+      <c r="A68" t="str">
         <f>original!A69</f>
         <v>Reschedule meeting</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B68" t="str">
         <f>original!B69</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="str">
+    <row r="69" spans="1:2">
+      <c r="A69" t="str">
         <f>original!A70</f>
         <v>Update call time in calendar</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B69" t="str">
         <f>original!B70</f>
         <v>action-meeting-create</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="str">
+    <row r="70" spans="1:2">
+      <c r="A70" t="str">
         <f>original!A71</f>
         <v>Update meeting time in calendar</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B70" t="str">
         <f>original!B71</f>
         <v>action-meeting-create</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="str">
-        <f>original!A72</f>
-        <v>Running late for my meeting</v>
-      </c>
-      <c r="B66" t="str">
-        <f>original!B72</f>
-        <v>action-meeting-notify-attendees</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="str">
-        <f>original!A73</f>
-        <v>Please call current meeting, running late</v>
-      </c>
-      <c r="B67" t="str">
-        <f>original!B73</f>
-        <v>action-meeting-notify-attendees</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="str">
-        <f>original!A74</f>
-        <v>Email current meeting that I'm running late</v>
-      </c>
-      <c r="B68" t="str">
-        <f>original!B74</f>
-        <v>action-meeting-notify-attendees</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="str">
-        <f>original!A75</f>
-        <v>Late for meeting. Notify team</v>
-      </c>
-      <c r="B69" t="str">
-        <f>original!B75</f>
-        <v>action-meeting-notify-attendees</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="str">
-        <f>original!A76</f>
-        <v>Ping team I'm running * minutes late</v>
-      </c>
-      <c r="B70" t="str">
-        <f>original!B76</f>
-        <v>action-meeting-notify-attendees</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="str">
-        <f>original!A77</f>
-        <v>Notify team I'm running late</v>
+        <f>original!A72</f>
+        <v>Add item to task list</v>
       </c>
       <c r="B71" t="str">
-        <f>original!B77</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B72</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="str">
-        <f>original!A78</f>
-        <v>Notify team I'm running * mintues late</v>
+        <f>original!A73</f>
+        <v>Add item to to-do list</v>
       </c>
       <c r="B72" t="str">
-        <f>original!B78</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B73</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="str">
-        <f>original!A79</f>
-        <v>Tell team on current call I'll join in * minutes</v>
+        <f>original!A74</f>
+        <v>New action item</v>
       </c>
       <c r="B73" t="str">
-        <f>original!B79</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B74</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="str">
-        <f>original!A80</f>
-        <v>Joining current call in * minutes</v>
+        <f>original!A75</f>
+        <v>New action item for list</v>
       </c>
       <c r="B74" t="str">
-        <f>original!B80</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B75</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="str">
-        <f>original!A81</f>
-        <v>Late for my meeting.  Ping team.</v>
+        <f>original!A76</f>
+        <v xml:space="preserve">Action item </v>
       </c>
       <c r="B75" t="str">
-        <f>original!B81</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B76</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="str">
-        <f>original!A82</f>
-        <v>Running late</v>
+        <f>original!A77</f>
+        <v>New task</v>
       </c>
       <c r="B76" t="str">
-        <f>original!B82</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B77</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="str">
-        <f>original!A83</f>
-        <v>late for meeting, notify</v>
+        <f>original!A78</f>
+        <v>update task</v>
       </c>
       <c r="B77" t="str">
-        <f>original!B83</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B78</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="str">
-        <f>original!A84</f>
-        <v>tell meeting participants I'm running late</v>
+        <f>original!A79</f>
+        <v>add task</v>
       </c>
       <c r="B78" t="str">
-        <f>original!B84</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B79</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="str">
-        <f>original!A85</f>
-        <v>Running a few minutes late</v>
+        <f>original!A80</f>
+        <v>to do *</v>
       </c>
       <c r="B79" t="str">
-        <f>original!B85</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B80</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="str">
-        <f>original!A86</f>
-        <v>I'll be a few minutes late for call</v>
+        <f>original!A81</f>
+        <v>create new task</v>
       </c>
       <c r="B80" t="str">
-        <f>original!B86</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B81</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="str">
-        <f>original!A87</f>
-        <v>I'll be * minutes late for call</v>
+        <f>original!A82</f>
+        <v>add new task</v>
       </c>
       <c r="B81" t="str">
-        <f>original!B87</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B82</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="str">
-        <f>original!A88</f>
-        <v>Team notify that I'm delayed</v>
+        <f>original!A83</f>
+        <v>update task list</v>
       </c>
       <c r="B82" t="str">
-        <f>original!B88</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B83</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="str">
-        <f>original!A89</f>
-        <v>Joining team in * minutes</v>
+        <f>original!A84</f>
+        <v>task list update</v>
       </c>
       <c r="B83" t="str">
-        <f>original!B89</f>
-        <v>action-meeting-notify-attendees</v>
+        <f>original!B84</f>
+        <v>action-task-create</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="str">
+        <f>original!A85</f>
+        <v>task list - new item</v>
+      </c>
+      <c r="B84" t="str">
+        <f>original!B85</f>
+        <v>action-task-create</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="str">
+        <f>original!A86</f>
+        <v>new item for task list</v>
+      </c>
+      <c r="B85" t="str">
+        <f>original!B86</f>
+        <v>action-task-create</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="str">
+        <f>original!A87</f>
+        <v>Reminder</v>
+      </c>
+      <c r="B86" t="str">
+        <f>original!B87</f>
+        <v>action-task-create</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="str">
+        <f>original!A88</f>
+        <v>Reminder for task list</v>
+      </c>
+      <c r="B87" t="str">
+        <f>original!B88</f>
+        <v>action-task-create</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="str">
+        <f>original!A89</f>
+        <v>add reminder for task list to *</v>
+      </c>
+      <c r="B88" t="str">
+        <f>original!B89</f>
+        <v>action-task-create</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="str">
         <f>original!A90</f>
-        <v>Add item to task list</v>
-      </c>
-      <c r="B84" t="str">
+        <v>reminder to * add to task list</v>
+      </c>
+      <c r="B89" t="str">
         <f>original!B90</f>
         <v>action-task-create</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="str">
+    <row r="90" spans="1:2">
+      <c r="A90" t="str">
         <f>original!A91</f>
-        <v>Add item to to-do list</v>
-      </c>
-      <c r="B85" t="str">
+        <v>personal assistant - add to task list</v>
+      </c>
+      <c r="B90" t="str">
         <f>original!B91</f>
         <v>action-task-create</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="str">
+    <row r="91" spans="1:2">
+      <c r="A91" t="str">
         <f>original!A92</f>
-        <v>New action item</v>
-      </c>
-      <c r="B86" t="str">
+        <v>take a note</v>
+      </c>
+      <c r="B91" t="str">
         <f>original!B92</f>
         <v>action-task-create</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="str">
-        <f>original!A93</f>
-        <v>New action item for list</v>
-      </c>
-      <c r="B87" t="str">
-        <f>original!B93</f>
-        <v>action-task-create</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="str">
-        <f>original!A94</f>
-        <v xml:space="preserve">Action item </v>
-      </c>
-      <c r="B88" t="str">
-        <f>original!B94</f>
-        <v>action-task-create</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="str">
-        <f>original!A95</f>
-        <v>New task</v>
-      </c>
-      <c r="B89" t="str">
-        <f>original!B95</f>
-        <v>action-task-create</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="str">
-        <f>original!A96</f>
-        <v>update task</v>
-      </c>
-      <c r="B90" t="str">
-        <f>original!B96</f>
-        <v>action-task-create</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="str">
-        <f>original!A97</f>
-        <v>add task</v>
-      </c>
-      <c r="B91" t="str">
-        <f>original!B97</f>
-        <v>action-task-create</v>
-      </c>
-    </row>
     <row r="92" spans="1:2">
       <c r="A92" t="str">
-        <f>original!A98</f>
-        <v>to do *</v>
+        <f>original!A93</f>
+        <v>knock knock</v>
       </c>
       <c r="B92" t="str">
-        <f>original!B98</f>
-        <v>action-task-create</v>
+        <f>original!B93</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="str">
-        <f>original!A99</f>
-        <v>create new task</v>
+        <f>original!A94</f>
+        <v>Say something funny</v>
       </c>
       <c r="B93" t="str">
-        <f>original!B99</f>
-        <v>action-task-create</v>
+        <f>original!B94</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="str">
-        <f>original!A100</f>
-        <v>add new task</v>
+        <f>original!A95</f>
+        <v>Tell me a joke</v>
       </c>
       <c r="B94" t="str">
-        <f>original!B100</f>
-        <v>action-task-create</v>
+        <f>original!B95</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="str">
-        <f>original!A101</f>
-        <v>update task list</v>
+        <f>original!A96</f>
+        <v>cat rat sat bat mat</v>
       </c>
       <c r="B95" t="str">
-        <f>original!B101</f>
-        <v>action-task-create</v>
+        <f>original!B96</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="str">
-        <f>original!A102</f>
-        <v>task list update</v>
+        <f>original!A97</f>
+        <v>roses are red violets are blue</v>
       </c>
       <c r="B96" t="str">
-        <f>original!B102</f>
-        <v>action-task-create</v>
+        <f>original!B97</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="str">
-        <f>original!A103</f>
-        <v>task list - new item</v>
+        <f>original!A98</f>
+        <v>Tell me a haiku</v>
       </c>
       <c r="B97" t="str">
-        <f>original!B103</f>
-        <v>action-task-create</v>
+        <f>original!B98</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="str">
-        <f>original!A104</f>
-        <v>new item for task list</v>
+        <f>original!A99</f>
+        <v>chicken or the egg?</v>
       </c>
       <c r="B98" t="str">
-        <f>original!B104</f>
-        <v>action-task-create</v>
+        <f>original!B99</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="str">
-        <f>original!A105</f>
-        <v>Reminder</v>
+        <f>original!A100</f>
+        <v>Tell me a riddle</v>
       </c>
       <c r="B99" t="str">
-        <f>original!B105</f>
-        <v>action-task-create</v>
+        <f>original!B100</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="str">
-        <f>original!A106</f>
-        <v>Reminder for task list</v>
+        <f>original!A101</f>
+        <v>Tell me a story</v>
       </c>
       <c r="B100" t="str">
-        <f>original!B106</f>
-        <v>action-task-create</v>
+        <f>original!B101</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="str">
-        <f>original!A107</f>
-        <v>add reminder for task list to *</v>
+        <f>original!A102</f>
+        <v>1 plus 1</v>
       </c>
       <c r="B101" t="str">
-        <f>original!B107</f>
-        <v>action-task-create</v>
+        <f>original!B102</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="str">
-        <f>original!A108</f>
-        <v>reminder to * add to task list</v>
+        <f>original!A103</f>
+        <v>1+1</v>
       </c>
       <c r="B102" t="str">
-        <f>original!B108</f>
-        <v>action-task-create</v>
+        <f>original!B103</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="str">
-        <f>original!A109</f>
-        <v>personal assistant - add to task list</v>
+        <f>original!A104</f>
+        <v>1+1=?</v>
       </c>
       <c r="B103" t="str">
-        <f>original!B109</f>
-        <v>action-task-create</v>
+        <f>original!B104</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="str">
-        <f>original!A110</f>
-        <v>take a note</v>
+        <f>original!A105</f>
+        <v>10 plus 10</v>
       </c>
       <c r="B104" t="str">
-        <f>original!B110</f>
-        <v>action-task-create</v>
+        <f>original!B105</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="str">
-        <f>original!A111</f>
-        <v>knock knock</v>
+        <f>original!A106</f>
+        <v>10 + 10 =</v>
       </c>
       <c r="B105" t="str">
-        <f>original!B111</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B106</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="str">
-        <f>original!A112</f>
-        <v>Say something funny</v>
+        <f>original!A107</f>
+        <v>10+10=?</v>
       </c>
       <c r="B106" t="str">
-        <f>original!B112</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B107</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="str">
-        <f>original!A113</f>
-        <v>Tell me a joke</v>
+        <f>original!A108</f>
+        <v>100 minus 10</v>
       </c>
       <c r="B107" t="str">
-        <f>original!B113</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B108</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="str">
-        <f>original!A114</f>
-        <v>cat rat sat bat mat</v>
+        <f>original!A109</f>
+        <v>5 plus five</v>
       </c>
       <c r="B108" t="str">
-        <f>original!B114</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B109</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="str">
-        <f>original!A115</f>
-        <v>roses are red violets are blue</v>
+        <f>original!A110</f>
+        <v>a million plus a billion?</v>
       </c>
       <c r="B109" t="str">
-        <f>original!B115</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B110</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="str">
-        <f>original!A116</f>
-        <v>Tell me a haiku</v>
+        <f>original!A111</f>
+        <v>infinity</v>
       </c>
       <c r="B110" t="str">
-        <f>original!B116</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B111</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="str">
-        <f>original!A117</f>
-        <v>chicken or the egg?</v>
+        <f>original!A112</f>
+        <v>infinity / infinity</v>
       </c>
       <c r="B111" t="str">
-        <f>original!B117</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B112</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="str">
-        <f>original!A118</f>
-        <v>Tell me a riddle</v>
+        <f>original!A113</f>
+        <v>infinity divided by zero</v>
       </c>
       <c r="B112" t="str">
-        <f>original!B118</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B113</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="str">
-        <f>original!A119</f>
-        <v>Tell me a story</v>
+        <f>original!A114</f>
+        <v>infinity/infinity</v>
       </c>
       <c r="B113" t="str">
-        <f>original!B119</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f>original!B114</f>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="str">
-        <f>original!A120</f>
-        <v>1 plus 1</v>
+        <f>original!A115</f>
+        <v>What is * divided by zero?</v>
       </c>
       <c r="B114" t="str">
-        <f>original!B120</f>
+        <f>original!B115</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="str">
-        <f>original!A121</f>
-        <v>1+1</v>
+        <f>original!A116</f>
+        <v>What is 1/0?</v>
       </c>
       <c r="B115" t="str">
-        <f>original!B121</f>
+        <f>original!B116</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="str">
-        <f>original!A122</f>
-        <v>1+1=?</v>
+        <f>original!A117</f>
+        <v>What is 1+1?</v>
       </c>
       <c r="B116" t="str">
-        <f>original!B122</f>
+        <f>original!B117</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="str">
-        <f>original!A123</f>
-        <v>10 plus 10</v>
+        <f>original!A118</f>
+        <v>What is 2+2</v>
       </c>
       <c r="B117" t="str">
-        <f>original!B123</f>
+        <f>original!B118</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="str">
-        <f>original!A124</f>
-        <v>10 + 10 =</v>
+        <f>original!A119</f>
+        <v>what is nine plus fourteen?</v>
       </c>
       <c r="B118" t="str">
-        <f>original!B124</f>
+        <f>original!B119</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="str">
-        <f>original!A125</f>
-        <v>10+10=?</v>
+        <f>original!A120</f>
+        <v>'agk4'3k'p0f23k</v>
       </c>
       <c r="B119" t="str">
-        <f>original!B125</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B120</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="str">
-        <f>original!A126</f>
-        <v>100 minus 10</v>
+        <f>original!A121</f>
+        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
       </c>
       <c r="B120" t="str">
-        <f>original!B126</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B121</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="str">
-        <f>original!A127</f>
-        <v>5 plus five</v>
+        <f>original!A122</f>
+        <v>292-494f4</v>
       </c>
       <c r="B121" t="str">
-        <f>original!B127</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B122</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="str">
-        <f>original!A128</f>
-        <v>a million plus a billion?</v>
+        <f>original!A123</f>
+        <v>ajfskdw49urwe0w3ufiwel</v>
       </c>
       <c r="B122" t="str">
-        <f>original!B128</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B123</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="str">
-        <f>original!A129</f>
-        <v>infinity</v>
+        <f>original!A124</f>
+        <v>asd f efwefjkw jkl</v>
       </c>
       <c r="B123" t="str">
-        <f>original!B129</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B124</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="str">
-        <f>original!A130</f>
-        <v>infinity / infinity</v>
+        <f>original!A125</f>
+        <v>aslkdjal</v>
       </c>
       <c r="B124" t="str">
-        <f>original!B130</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B125</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="str">
-        <f>original!A131</f>
-        <v>infinity divided by zero</v>
+        <f>original!A126</f>
+        <v>jklfadsk23450923u u9q3uf203 9u</v>
       </c>
       <c r="B125" t="str">
-        <f>original!B131</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B126</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="str">
-        <f>original!A132</f>
-        <v>infinity/infinity</v>
+        <f>original!A127</f>
+        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
       </c>
       <c r="B126" t="str">
-        <f>original!B132</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B127</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="str">
-        <f>original!A133</f>
-        <v>What is * divided by zero?</v>
+        <f>original!A128</f>
+        <v>blah blah blah</v>
       </c>
       <c r="B127" t="str">
-        <f>original!B133</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B128</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="str">
-        <f>original!A134</f>
-        <v>What is 1/0?</v>
+        <f>original!A129</f>
+        <v>Is god real?</v>
       </c>
       <c r="B128" t="str">
-        <f>original!B134</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B129</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="str">
-        <f>original!A135</f>
-        <v>What is 1+1?</v>
+        <f>original!A130</f>
+        <v>What is the meaning of life?</v>
       </c>
       <c r="B129" t="str">
-        <f>original!B135</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B130</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
-        <f>original!A136</f>
-        <v>What is 2+2</v>
+        <f>original!A131</f>
+        <v>why do we die?</v>
       </c>
       <c r="B130" t="str">
-        <f>original!B136</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B131</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
-        <f>original!A137</f>
-        <v>what is nine plus fourteen?</v>
+        <f>original!A132</f>
+        <v>why do we live?</v>
       </c>
       <c r="B131" t="str">
-        <f>original!B137</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B132</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
-        <f>original!A138</f>
-        <v>'agk4'3k'p0f23k</v>
+        <f>original!A133</f>
+        <v>what is * in light years?</v>
       </c>
       <c r="B132" t="str">
-        <f>original!B138</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B133</f>
+        <v>respond-off-topic-science</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
-        <f>original!A139</f>
-        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
+        <f>original!A134</f>
+        <v>I'm tired</v>
       </c>
       <c r="B133" t="str">
-        <f>original!B139</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B134</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
-        <f>original!A140</f>
-        <v>292-494f4</v>
+        <f>original!A135</f>
+        <v>I'm drunk</v>
       </c>
       <c r="B134" t="str">
-        <f>original!B140</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B135</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
-        <f>original!A141</f>
-        <v>ajfskdw49urwe0w3ufiwel</v>
+        <f>original!A136</f>
+        <v>I'm naked</v>
       </c>
       <c r="B135" t="str">
-        <f>original!B141</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B136</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
-        <f>original!A142</f>
-        <v>asd f efwefjkw jkl</v>
+        <f>original!A137</f>
+        <v>Talk dirty to me</v>
       </c>
       <c r="B136" t="str">
-        <f>original!B142</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B137</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
-        <f>original!A143</f>
-        <v>aslkdjal</v>
+        <f>original!A138</f>
+        <v>I love you</v>
       </c>
       <c r="B137" t="str">
-        <f>original!B143</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B138</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
-        <f>original!A144</f>
-        <v>jklfadsk23450923u u9q3uf203 9u</v>
+        <f>original!A139</f>
+        <v>Ask me a question</v>
       </c>
       <c r="B138" t="str">
-        <f>original!B144</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B139</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
-        <f>original!A145</f>
-        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
+        <f>original!A140</f>
+        <v>i had a terrible day!</v>
       </c>
       <c r="B139" t="str">
-        <f>original!B145</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B140</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
-        <f>original!A146</f>
-        <v>blah blah blah</v>
+        <f>original!A141</f>
+        <v>I'm sad</v>
       </c>
       <c r="B140" t="str">
-        <f>original!B146</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B141</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
-        <f>original!A147</f>
-        <v>Is god real?</v>
+        <f>original!A142</f>
+        <v>my computer broke!</v>
       </c>
       <c r="B141" t="str">
-        <f>original!B147</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B142</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
-        <f>original!A148</f>
-        <v>What is the meaning of life?</v>
+        <f>original!A143</f>
+        <v>Do you have eyes?</v>
       </c>
       <c r="B142" t="str">
-        <f>original!B148</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B143</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
-        <f>original!A149</f>
-        <v>why do we die?</v>
+        <f>original!A144</f>
+        <v>where is your hardware?</v>
       </c>
       <c r="B143" t="str">
-        <f>original!B149</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B144</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
-        <f>original!A150</f>
-        <v>why do we live?</v>
+        <f>original!A145</f>
+        <v>are you happy?</v>
       </c>
       <c r="B144" t="str">
-        <f>original!B150</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B145</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
-        <f>original!A151</f>
-        <v>what is * in light years?</v>
+        <f>original!A146</f>
+        <v>Do you follow the three laws of robotics?</v>
       </c>
       <c r="B145" t="str">
-        <f>original!B151</f>
-        <v>respond-off-topic-science</v>
+        <f>original!B146</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
-        <f>original!A152</f>
-        <v>I'm tired</v>
+        <f>original!A147</f>
+        <v>Do you have feelings?</v>
       </c>
       <c r="B146" t="str">
-        <f>original!B152</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B147</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
-        <f>original!A153</f>
-        <v>I'm drunk</v>
+        <f>original!A148</f>
+        <v>How old are you</v>
       </c>
       <c r="B147" t="str">
-        <f>original!B153</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B148</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
-        <f>original!A154</f>
-        <v>I'm naked</v>
+        <f>original!A149</f>
+        <v>What is your favorite color?</v>
       </c>
       <c r="B148" t="str">
-        <f>original!B154</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B149</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
-        <f>original!A155</f>
-        <v>Talk dirty to me</v>
+        <f>original!A150</f>
+        <v>What's your favourite animal?</v>
       </c>
       <c r="B149" t="str">
-        <f>original!B155</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="str">
-        <f>original!A156</f>
-        <v>I love you</v>
-      </c>
-      <c r="B150" t="str">
-        <f>original!B156</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="str">
-        <f>original!A157</f>
-        <v>Ask me a question</v>
-      </c>
-      <c r="B151" t="str">
-        <f>original!B157</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="str">
-        <f>original!A158</f>
-        <v>i had a terrible day!</v>
-      </c>
-      <c r="B152" t="str">
-        <f>original!B158</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="str">
-        <f>original!A159</f>
-        <v>I'm sad</v>
-      </c>
-      <c r="B153" t="str">
-        <f>original!B159</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="str">
-        <f>original!A160</f>
-        <v>my computer broke!</v>
-      </c>
-      <c r="B154" t="str">
-        <f>original!B160</f>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="str">
-        <f>original!A161</f>
-        <v>Do you have eyes?</v>
-      </c>
-      <c r="B155" t="str">
-        <f>original!B161</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="str">
-        <f>original!A162</f>
-        <v>where is your hardware?</v>
-      </c>
-      <c r="B156" t="str">
-        <f>original!B162</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="str">
-        <f>original!A163</f>
-        <v>are you happy?</v>
-      </c>
-      <c r="B157" t="str">
-        <f>original!B163</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="str">
-        <f>original!A164</f>
-        <v>Do you follow the three laws of robotics?</v>
-      </c>
-      <c r="B158" t="str">
-        <f>original!B164</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="str">
-        <f>original!A165</f>
-        <v>Do you have feelings?</v>
-      </c>
-      <c r="B159" t="str">
-        <f>original!B165</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="str">
-        <f>original!A166</f>
-        <v>How old are you</v>
-      </c>
-      <c r="B160" t="str">
-        <f>original!B166</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="str">
-        <f>original!A167</f>
-        <v>What is your favorite color?</v>
-      </c>
-      <c r="B161" t="str">
-        <f>original!B167</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="str">
-        <f>original!A168</f>
-        <v>What's your favourite animal?</v>
-      </c>
-      <c r="B162" t="str">
-        <f>original!B168</f>
+        <f>original!B150</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
@@ -2717,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="A150" sqref="A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2750,7 +2633,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:B38" si="0">CONCATENATE(C2,"-",D2,"-",E2)</f>
+        <f>CONCATENATE(C2,"-",D2,"-",E2)</f>
         <v>action-email-create</v>
       </c>
       <c r="C2" t="s">
@@ -2768,7 +2651,7 @@
         <v>24</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C3,"-",D3,"-",E3)</f>
         <v>action-email-create</v>
       </c>
       <c r="C3" t="s">
@@ -2786,7 +2669,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C4,"-",D4,"-",E4)</f>
         <v>action-email-create</v>
       </c>
       <c r="C4" t="s">
@@ -2804,7 +2687,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C5,"-",D5,"-",E5)</f>
         <v>action-email-create</v>
       </c>
       <c r="C5" t="s">
@@ -2822,7 +2705,7 @@
         <v>27</v>
       </c>
       <c r="B6" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C6,"-",D6,"-",E6)</f>
         <v>action-email-create</v>
       </c>
       <c r="C6" t="s">
@@ -2840,7 +2723,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C7,"-",D7,"-",E7)</f>
         <v>action-email-create</v>
       </c>
       <c r="C7" t="s">
@@ -2858,7 +2741,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C8,"-",D8,"-",E8)</f>
         <v>action-email-create</v>
       </c>
       <c r="C8" t="s">
@@ -2876,7 +2759,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C9,"-",D9,"-",E9)</f>
         <v>action-email-create</v>
       </c>
       <c r="C9" t="s">
@@ -2894,7 +2777,7 @@
         <v>31</v>
       </c>
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C10,"-",D10,"-",E10)</f>
         <v>action-email-create</v>
       </c>
       <c r="C10" t="s">
@@ -2912,7 +2795,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C11,"-",D11,"-",E11)</f>
         <v>action-email-create</v>
       </c>
       <c r="C11" t="s">
@@ -2930,7 +2813,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C12,"-",D12,"-",E12)</f>
         <v>action-email-create</v>
       </c>
       <c r="C12" t="s">
@@ -2948,7 +2831,7 @@
         <v>34</v>
       </c>
       <c r="B13" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C13,"-",D13,"-",E13)</f>
         <v>action-email-create</v>
       </c>
       <c r="C13" t="s">
@@ -2966,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C14,"-",D14,"-",E14)</f>
         <v>action-email-create</v>
       </c>
       <c r="C14" t="s">
@@ -2984,7 +2867,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C15,"-",D15,"-",E15)</f>
         <v>action-email-create</v>
       </c>
       <c r="C15" t="s">
@@ -3002,7 +2885,7 @@
         <v>37</v>
       </c>
       <c r="B16" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C16,"-",D16,"-",E16)</f>
         <v>action-email-create</v>
       </c>
       <c r="C16" t="s">
@@ -3020,7 +2903,7 @@
         <v>38</v>
       </c>
       <c r="B17" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C17,"-",D17,"-",E17)</f>
         <v>action-email-create</v>
       </c>
       <c r="C17" t="s">
@@ -3038,7 +2921,7 @@
         <v>151</v>
       </c>
       <c r="B18" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C18,"-",D18,"-",E18)</f>
         <v>action-email-create</v>
       </c>
       <c r="C18" t="s">
@@ -3056,7 +2939,7 @@
         <v>152</v>
       </c>
       <c r="B19" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C19,"-",D19,"-",E19)</f>
         <v>action-email-create</v>
       </c>
       <c r="C19" t="s">
@@ -3074,7 +2957,7 @@
         <v>153</v>
       </c>
       <c r="B20" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C20,"-",D20,"-",E20)</f>
         <v>action-email-create</v>
       </c>
       <c r="C20" t="s">
@@ -3092,7 +2975,7 @@
         <v>154</v>
       </c>
       <c r="B21" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C21,"-",D21,"-",E21)</f>
         <v>action-email-create</v>
       </c>
       <c r="C21" t="s">
@@ -3110,7 +2993,7 @@
         <v>155</v>
       </c>
       <c r="B22" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C22,"-",D22,"-",E22)</f>
         <v>action-email-create</v>
       </c>
       <c r="C22" t="s">
@@ -3128,7 +3011,7 @@
         <v>156</v>
       </c>
       <c r="B23" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C23,"-",D23,"-",E23)</f>
         <v>action-email-create</v>
       </c>
       <c r="C23" t="s">
@@ -3146,7 +3029,7 @@
         <v>157</v>
       </c>
       <c r="B24" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C24,"-",D24,"-",E24)</f>
         <v>action-email-create</v>
       </c>
       <c r="C24" t="s">
@@ -3164,7 +3047,7 @@
         <v>158</v>
       </c>
       <c r="B25" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C25,"-",D25,"-",E25)</f>
         <v>action-email-create</v>
       </c>
       <c r="C25" t="s">
@@ -3182,7 +3065,7 @@
         <v>181</v>
       </c>
       <c r="B26" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C26,"-",D26,"-",E26)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C26" t="s">
@@ -3200,7 +3083,7 @@
         <v>185</v>
       </c>
       <c r="B27" t="str">
-        <f t="shared" ref="B27:B29" si="1">CONCATENATE(C27,"-",D27,"-",E27)</f>
+        <f>CONCATENATE(C27,"-",D27,"-",E27)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C27" t="s">
@@ -3218,7 +3101,7 @@
         <v>183</v>
       </c>
       <c r="B28" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C28,"-",D28,"-",E28)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C28" t="s">
@@ -3236,7 +3119,7 @@
         <v>184</v>
       </c>
       <c r="B29" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(C29,"-",D29,"-",E29)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C29" t="s">
@@ -3254,7 +3137,7 @@
         <v>182</v>
       </c>
       <c r="B30" t="str">
-        <f t="shared" ref="B30" si="2">CONCATENATE(C30,"-",D30,"-",E30)</f>
+        <f>CONCATENATE(C30,"-",D30,"-",E30)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C30" t="s">
@@ -3272,7 +3155,7 @@
         <v>112</v>
       </c>
       <c r="B31" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C31,"-",D31,"-",E31)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C31" t="s">
@@ -3290,7 +3173,7 @@
         <v>113</v>
       </c>
       <c r="B32" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C32,"-",D32,"-",E32)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C32" t="s">
@@ -3308,7 +3191,7 @@
         <v>114</v>
       </c>
       <c r="B33" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C33,"-",D33,"-",E33)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C33" t="s">
@@ -3326,7 +3209,7 @@
         <v>115</v>
       </c>
       <c r="B34" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C34,"-",D34,"-",E34)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C34" t="s">
@@ -3344,7 +3227,7 @@
         <v>116</v>
       </c>
       <c r="B35" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C35,"-",D35,"-",E35)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C35" t="s">
@@ -3362,7 +3245,7 @@
         <v>117</v>
       </c>
       <c r="B36" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C36,"-",D36,"-",E36)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C36" t="s">
@@ -3380,7 +3263,7 @@
         <v>118</v>
       </c>
       <c r="B37" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C37,"-",D37,"-",E37)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C37" t="s">
@@ -3398,7 +3281,7 @@
         <v>119</v>
       </c>
       <c r="B38" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(C38,"-",D38,"-",E38)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C38" t="s">
@@ -3416,7 +3299,7 @@
         <v>120</v>
       </c>
       <c r="B39" t="str">
-        <f t="shared" ref="B39:B70" si="3">CONCATENATE(C39,"-",D39,"-",E39)</f>
+        <f>CONCATENATE(C39,"-",D39,"-",E39)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C39" t="s">
@@ -3434,7 +3317,7 @@
         <v>121</v>
       </c>
       <c r="B40" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C40,"-",D40,"-",E40)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C40" t="s">
@@ -3452,7 +3335,7 @@
         <v>122</v>
       </c>
       <c r="B41" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C41,"-",D41,"-",E41)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C41" t="s">
@@ -3470,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C42,"-",D42,"-",E42)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C42" t="s">
@@ -3488,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C43,"-",D43,"-",E43)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C43" t="s">
@@ -3506,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C44,"-",D44,"-",E44)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C44" t="s">
@@ -3524,7 +3407,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C45,"-",D45,"-",E45)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C45" t="s">
@@ -3542,7 +3425,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C46,"-",D46,"-",E46)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C46" t="s">
@@ -3560,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C47,"-",D47,"-",E47)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C47" t="s">
@@ -3578,7 +3461,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C48,"-",D48,"-",E48)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C48" t="s">
@@ -3596,7 +3479,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C49,"-",D49,"-",E49)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C49" t="s">
@@ -3614,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C50,"-",D50,"-",E50)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C50" t="s">
@@ -3632,7 +3515,7 @@
         <v>17</v>
       </c>
       <c r="B51" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C51,"-",D51,"-",E51)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C51" t="s">
@@ -3650,7 +3533,7 @@
         <v>18</v>
       </c>
       <c r="B52" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C52,"-",D52,"-",E52)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C52" t="s">
@@ -3668,7 +3551,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C53,"-",D53,"-",E53)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C53" t="s">
@@ -3686,7 +3569,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C54,"-",D54,"-",E54)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C54" t="s">
@@ -3704,7 +3587,7 @@
         <v>21</v>
       </c>
       <c r="B55" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C55,"-",D55,"-",E55)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C55" t="s">
@@ -3722,7 +3605,7 @@
         <v>22</v>
       </c>
       <c r="B56" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C56,"-",D56,"-",E56)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C56" t="s">
@@ -3740,7 +3623,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C57,"-",D57,"-",E57)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C57" t="s">
@@ -3758,7 +3641,7 @@
         <v>137</v>
       </c>
       <c r="B58" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C58,"-",D58,"-",E58)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C58" t="s">
@@ -3776,7 +3659,7 @@
         <v>138</v>
       </c>
       <c r="B59" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C59,"-",D59,"-",E59)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C59" t="s">
@@ -3794,7 +3677,7 @@
         <v>139</v>
       </c>
       <c r="B60" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C60,"-",D60,"-",E60)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C60" t="s">
@@ -3812,7 +3695,7 @@
         <v>140</v>
       </c>
       <c r="B61" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C61,"-",D61,"-",E61)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C61" t="s">
@@ -3830,7 +3713,7 @@
         <v>141</v>
       </c>
       <c r="B62" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C62,"-",D62,"-",E62)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C62" t="s">
@@ -3848,7 +3731,7 @@
         <v>142</v>
       </c>
       <c r="B63" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C63,"-",D63,"-",E63)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C63" t="s">
@@ -3866,7 +3749,7 @@
         <v>143</v>
       </c>
       <c r="B64" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C64,"-",D64,"-",E64)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C64" t="s">
@@ -3884,7 +3767,7 @@
         <v>144</v>
       </c>
       <c r="B65" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C65,"-",D65,"-",E65)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C65" t="s">
@@ -3902,7 +3785,7 @@
         <v>145</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C66,"-",D66,"-",E66)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C66" t="s">
@@ -3920,7 +3803,7 @@
         <v>146</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C67,"-",D67,"-",E67)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C67" t="s">
@@ -3938,7 +3821,7 @@
         <v>147</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C68,"-",D68,"-",E68)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C68" t="s">
@@ -3956,7 +3839,7 @@
         <v>148</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C69,"-",D69,"-",E69)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C69" t="s">
@@ -3974,7 +3857,7 @@
         <v>149</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(C70,"-",D70,"-",E70)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C70" t="s">
@@ -3992,7 +3875,7 @@
         <v>150</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" ref="B71:B102" si="4">CONCATENATE(C71,"-",D71,"-",E71)</f>
+        <f>CONCATENATE(C71,"-",D71,"-",E71)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C71" t="s">
@@ -4007,334 +3890,334 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C72,"-",D72,"-",E72)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C73,"-",D73,"-",E73)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>162</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C74,"-",D74,"-",E74)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E74" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C75,"-",D75,"-",E75)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C76,"-",D76,"-",E76)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C77,"-",D77,"-",E77)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E77" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C78,"-",D78,"-",E78)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E78" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C79,"-",D79,"-",E79)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C80,"-",D80,"-",E80)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C81,"-",D81,"-",E81)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C82,"-",D82,"-",E82)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C83,"-",D83,"-",E83)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f>CONCATENATE(C84,"-",D84,"-",E84)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" ref="B85:B116" si="0">CONCATENATE(C85,"-",D85,"-",E85)</f>
+        <v>action-task-create</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E85" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E86" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E87" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="4"/>
-        <v>action-meeting-notify-attendees</v>
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="E89" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>action-task-create</v>
       </c>
       <c r="C90" t="s">
@@ -4349,10 +4232,10 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>action-task-create</v>
       </c>
       <c r="C91" t="s">
@@ -4367,10 +4250,10 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>action-task-create</v>
       </c>
       <c r="C92" t="s">
@@ -4385,335 +4268,335 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D93" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D96" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D97" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>88</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="4"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" ref="B103:B134" si="5">CONCATENATE(C103,"-",D103,"-",E103)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D106" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D107" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="5"/>
-        <v>action-task-create</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D110" t="s">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C111" t="s">
         <v>101</v>
@@ -4722,16 +4605,16 @@
         <v>102</v>
       </c>
       <c r="E111" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C112" t="s">
         <v>101</v>
@@ -4740,16 +4623,16 @@
         <v>102</v>
       </c>
       <c r="E112" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C113" t="s">
         <v>101</v>
@@ -4758,16 +4641,16 @@
         <v>102</v>
       </c>
       <c r="E113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C114" t="s">
         <v>101</v>
@@ -4776,16 +4659,16 @@
         <v>102</v>
       </c>
       <c r="E114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C115" t="s">
         <v>101</v>
@@ -4794,16 +4677,16 @@
         <v>102</v>
       </c>
       <c r="E115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="0"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C116" t="s">
         <v>101</v>
@@ -4812,16 +4695,16 @@
         <v>102</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" ref="B117:B148" si="1">CONCATENATE(C117,"-",D117,"-",E117)</f>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C117" t="s">
         <v>101</v>
@@ -4830,16 +4713,16 @@
         <v>102</v>
       </c>
       <c r="E117" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C118" t="s">
         <v>101</v>
@@ -4848,16 +4731,16 @@
         <v>102</v>
       </c>
       <c r="E118" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C119" t="s">
         <v>101</v>
@@ -4866,16 +4749,16 @@
         <v>102</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C120" t="s">
         <v>101</v>
@@ -4884,16 +4767,16 @@
         <v>102</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C121" t="s">
         <v>101</v>
@@ -4902,16 +4785,16 @@
         <v>102</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C122" t="s">
         <v>101</v>
@@ -4920,16 +4803,16 @@
         <v>102</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C123" t="s">
         <v>101</v>
@@ -4938,16 +4821,16 @@
         <v>102</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C124" t="s">
         <v>101</v>
@@ -4956,16 +4839,16 @@
         <v>102</v>
       </c>
       <c r="E124" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C125" t="s">
         <v>101</v>
@@ -4974,16 +4857,16 @@
         <v>102</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C126" t="s">
         <v>101</v>
@@ -4992,16 +4875,16 @@
         <v>102</v>
       </c>
       <c r="E126" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C127" t="s">
         <v>101</v>
@@ -5010,16 +4893,16 @@
         <v>102</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C128" t="s">
         <v>101</v>
@@ -5028,16 +4911,16 @@
         <v>102</v>
       </c>
       <c r="E128" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C129" t="s">
         <v>101</v>
@@ -5046,16 +4929,16 @@
         <v>102</v>
       </c>
       <c r="E129" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C130" t="s">
         <v>101</v>
@@ -5064,16 +4947,16 @@
         <v>102</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C131" t="s">
         <v>101</v>
@@ -5082,16 +4965,16 @@
         <v>102</v>
       </c>
       <c r="E131" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C132" t="s">
         <v>101</v>
@@ -5100,16 +4983,16 @@
         <v>102</v>
       </c>
       <c r="E132" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-science</v>
       </c>
       <c r="C133" t="s">
         <v>101</v>
@@ -5118,16 +5001,16 @@
         <v>102</v>
       </c>
       <c r="E133" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C134" t="s">
         <v>101</v>
@@ -5136,16 +5019,16 @@
         <v>102</v>
       </c>
       <c r="E134" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" ref="B135:B166" si="6">CONCATENATE(C135,"-",D135,"-",E135)</f>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C135" t="s">
         <v>101</v>
@@ -5154,16 +5037,16 @@
         <v>102</v>
       </c>
       <c r="E135" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C136" t="s">
         <v>101</v>
@@ -5172,16 +5055,16 @@
         <v>102</v>
       </c>
       <c r="E136" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C137" t="s">
         <v>101</v>
@@ -5190,16 +5073,16 @@
         <v>102</v>
       </c>
       <c r="E137" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C138" t="s">
         <v>101</v>
@@ -5208,16 +5091,16 @@
         <v>102</v>
       </c>
       <c r="E138" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C139" t="s">
         <v>101</v>
@@ -5226,16 +5109,16 @@
         <v>102</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C140" t="s">
         <v>101</v>
@@ -5244,16 +5127,16 @@
         <v>102</v>
       </c>
       <c r="E140" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C141" t="s">
         <v>101</v>
@@ -5262,16 +5145,16 @@
         <v>102</v>
       </c>
       <c r="E141" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C142" t="s">
         <v>101</v>
@@ -5280,16 +5163,16 @@
         <v>102</v>
       </c>
       <c r="E142" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C143" t="s">
         <v>101</v>
@@ -5298,16 +5181,16 @@
         <v>102</v>
       </c>
       <c r="E143" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C144" t="s">
         <v>101</v>
@@ -5316,16 +5199,16 @@
         <v>102</v>
       </c>
       <c r="E144" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C145" t="s">
         <v>101</v>
@@ -5334,16 +5217,16 @@
         <v>102</v>
       </c>
       <c r="E145" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C146" t="s">
         <v>101</v>
@@ -5352,16 +5235,16 @@
         <v>102</v>
       </c>
       <c r="E146" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C147" t="s">
         <v>101</v>
@@ -5370,16 +5253,16 @@
         <v>102</v>
       </c>
       <c r="E147" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="1"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C148" t="s">
         <v>101</v>
@@ -5388,16 +5271,16 @@
         <v>102</v>
       </c>
       <c r="E148" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" ref="B149:B150" si="2">CONCATENATE(C149,"-",D149,"-",E149)</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C149" t="s">
         <v>101</v>
@@ -5406,16 +5289,16 @@
         <v>102</v>
       </c>
       <c r="E149" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="2"/>
+        <v>respond-off-topic-watson-focus</v>
       </c>
       <c r="C150" t="s">
         <v>101</v>
@@ -5424,335 +5307,11 @@
         <v>102</v>
       </c>
       <c r="E150" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" t="s">
-        <v>54</v>
-      </c>
-      <c r="B151" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-science</v>
-      </c>
-      <c r="C151" t="s">
-        <v>101</v>
-      </c>
-      <c r="D151" t="s">
-        <v>102</v>
-      </c>
-      <c r="E151" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" t="s">
-        <v>45</v>
-      </c>
-      <c r="B152" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C152" t="s">
-        <v>101</v>
-      </c>
-      <c r="D152" t="s">
-        <v>102</v>
-      </c>
-      <c r="E152" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C153" t="s">
-        <v>101</v>
-      </c>
-      <c r="D153" t="s">
-        <v>102</v>
-      </c>
-      <c r="E153" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C154" t="s">
-        <v>101</v>
-      </c>
-      <c r="D154" t="s">
-        <v>102</v>
-      </c>
-      <c r="E154" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" t="s">
-        <v>77</v>
-      </c>
-      <c r="B155" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C155" t="s">
-        <v>101</v>
-      </c>
-      <c r="D155" t="s">
-        <v>102</v>
-      </c>
-      <c r="E155" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" t="s">
-        <v>82</v>
-      </c>
-      <c r="B156" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C156" t="s">
-        <v>101</v>
-      </c>
-      <c r="D156" t="s">
-        <v>102</v>
-      </c>
-      <c r="E156" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" t="s">
-        <v>86</v>
-      </c>
-      <c r="B157" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C157" t="s">
-        <v>101</v>
-      </c>
-      <c r="D157" t="s">
-        <v>102</v>
-      </c>
-      <c r="E157" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B158" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C158" t="s">
-        <v>101</v>
-      </c>
-      <c r="D158" t="s">
-        <v>102</v>
-      </c>
-      <c r="E158" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>90</v>
-      </c>
-      <c r="B159" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C159" t="s">
-        <v>101</v>
-      </c>
-      <c r="D159" t="s">
-        <v>102</v>
-      </c>
-      <c r="E159" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>91</v>
-      </c>
-      <c r="B160" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
-      </c>
-      <c r="C160" t="s">
-        <v>101</v>
-      </c>
-      <c r="D160" t="s">
-        <v>102</v>
-      </c>
-      <c r="E160" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C161" t="s">
-        <v>101</v>
-      </c>
-      <c r="D161" t="s">
-        <v>102</v>
-      </c>
-      <c r="E161" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" t="s">
-        <v>94</v>
-      </c>
-      <c r="B162" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C162" t="s">
-        <v>101</v>
-      </c>
-      <c r="D162" t="s">
-        <v>102</v>
-      </c>
-      <c r="E162" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" t="s">
-        <v>95</v>
-      </c>
-      <c r="B163" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C163" t="s">
-        <v>101</v>
-      </c>
-      <c r="D163" t="s">
-        <v>102</v>
-      </c>
-      <c r="E163" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" t="s">
-        <v>96</v>
-      </c>
-      <c r="B164" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C164" t="s">
-        <v>101</v>
-      </c>
-      <c r="D164" t="s">
-        <v>102</v>
-      </c>
-      <c r="E164" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" t="s">
-        <v>97</v>
-      </c>
-      <c r="B165" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C165" t="s">
-        <v>101</v>
-      </c>
-      <c r="D165" t="s">
-        <v>102</v>
-      </c>
-      <c r="E165" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="A166" t="s">
-        <v>98</v>
-      </c>
-      <c r="B166" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C166" t="s">
-        <v>101</v>
-      </c>
-      <c r="D166" t="s">
-        <v>102</v>
-      </c>
-      <c r="E166" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="A167" t="s">
-        <v>99</v>
-      </c>
-      <c r="B167" t="str">
-        <f t="shared" ref="B167:B168" si="7">CONCATENATE(C167,"-",D167,"-",E167)</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C167" t="s">
-        <v>101</v>
-      </c>
-      <c r="D167" t="s">
-        <v>102</v>
-      </c>
-      <c r="E167" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
-      <c r="A168" t="s">
-        <v>100</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="7"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C168" t="s">
-        <v>101</v>
-      </c>
-      <c r="D168" t="s">
-        <v>102</v>
-      </c>
-      <c r="E168" t="s">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E114">
+  <autoFilter ref="A1:E96">
     <sortState ref="A2:E163">
       <sortCondition ref="B1:B163"/>
     </sortState>
@@ -5765,4 +5324,348 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="str">
+        <f>CONCATENATE(C1,"-",D1,"-",E1)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(C2,"-",D2,"-",E2)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(C3,"-",D3,"-",E3)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(C4,"-",D4,"-",E4)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE(C5,"-",D5,"-",E5)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(C6,"-",D6,"-",E6)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE(C7,"-",D7,"-",E7)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE(C8,"-",D8,"-",E8)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE(C9,"-",D9,"-",E9)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE(C10,"-",D10,"-",E10)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="str">
+        <f>CONCATENATE(C11,"-",D11,"-",E11)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(C12,"-",D12,"-",E12)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="str">
+        <f>CONCATENATE(C13,"-",D13,"-",E13)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="str">
+        <f>CONCATENATE(C14,"-",D14,"-",E14)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" t="str">
+        <f>CONCATENATE(C15,"-",D15,"-",E15)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="str">
+        <f>CONCATENATE(C16,"-",D16,"-",E16)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" t="str">
+        <f>CONCATENATE(C17,"-",D17,"-",E17)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" t="str">
+        <f>CONCATENATE(C18,"-",D18,"-",E18)</f>
+        <v>action-meeting-notify-attendees</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/nlc/ipa-web-nlc_training.xlsx
+++ b/nlc/ipa-web-nlc_training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Saved" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$106</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="220">
   <si>
     <t>Input</t>
   </si>
@@ -77,12 +77,6 @@
     <t>Schedule meeting</t>
   </si>
   <si>
-    <t>Meeting, schedule</t>
-  </si>
-  <si>
-    <t>Call, schedule</t>
-  </si>
-  <si>
     <t>New meeting</t>
   </si>
   <si>
@@ -191,12 +185,6 @@
     <t>what is * in light years?</t>
   </si>
   <si>
-    <t>knock knock</t>
-  </si>
-  <si>
-    <t>Say something funny</t>
-  </si>
-  <si>
     <t>Tell me a joke</t>
   </si>
   <si>
@@ -275,24 +263,9 @@
     <t>I love you</t>
   </si>
   <si>
-    <t>cat rat sat bat mat</t>
-  </si>
-  <si>
-    <t>roses are red violets are blue</t>
-  </si>
-  <si>
-    <t>Tell me a haiku</t>
-  </si>
-  <si>
     <t>Ask me a question</t>
   </si>
   <si>
-    <t>chicken or the egg?</t>
-  </si>
-  <si>
-    <t>Tell me a riddle</t>
-  </si>
-  <si>
     <t>i had a terrible day!</t>
   </si>
   <si>
@@ -582,6 +555,135 @@
   </si>
   <si>
     <t>Arrange a meeting at *</t>
+  </si>
+  <si>
+    <t>Do you know a good joke?</t>
+  </si>
+  <si>
+    <t>Make me laugh</t>
+  </si>
+  <si>
+    <t>Tell me a funny joke</t>
+  </si>
+  <si>
+    <t>Tell me something funny?</t>
+  </si>
+  <si>
+    <t>Make a joke</t>
+  </si>
+  <si>
+    <t>Know any good jokes</t>
+  </si>
+  <si>
+    <t>Tell me another joke</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>5*5/12</t>
+  </si>
+  <si>
+    <t>122*254/5</t>
+  </si>
+  <si>
+    <t>66/34</t>
+  </si>
+  <si>
+    <t>2-5*5</t>
+  </si>
+  <si>
+    <t>(2*5)*5-(9/8)</t>
+  </si>
+  <si>
+    <t>123*984/2</t>
+  </si>
+  <si>
+    <t>(234-567)/453</t>
+  </si>
+  <si>
+    <t>255*255</t>
+  </si>
+  <si>
+    <t>122*122</t>
+  </si>
+  <si>
+    <t>8^2</t>
+  </si>
+  <si>
+    <t>12^100</t>
+  </si>
+  <si>
+    <t>12*12</t>
+  </si>
+  <si>
+    <t>133*133</t>
+  </si>
+  <si>
+    <t>2^8</t>
+  </si>
+  <si>
+    <t>conversion</t>
+  </si>
+  <si>
+    <t>5 feet to inches</t>
+  </si>
+  <si>
+    <t>5 inches to feet</t>
+  </si>
+  <si>
+    <t>10 quarts to gallons</t>
+  </si>
+  <si>
+    <t>5 hours to days</t>
+  </si>
+  <si>
+    <t>10 mins to seconds</t>
+  </si>
+  <si>
+    <t>10 seconds to mins</t>
+  </si>
+  <si>
+    <t>5 meters to miles</t>
+  </si>
+  <si>
+    <t>500 miles to kilometers</t>
+  </si>
+  <si>
+    <t>5000 feet to miles</t>
+  </si>
+  <si>
+    <t>1 mile to kilometers</t>
+  </si>
+  <si>
+    <t>10 kilometers to miles</t>
+  </si>
+  <si>
+    <t>10 kgs to pounds</t>
+  </si>
+  <si>
+    <t>10 grams to ounces</t>
+  </si>
+  <si>
+    <t>20 ounces to pounds</t>
+  </si>
+  <si>
+    <t>20 pounts to grams</t>
+  </si>
+  <si>
+    <t>1 oz to grams</t>
+  </si>
+  <si>
+    <t>Meeting schedule</t>
+  </si>
+  <si>
+    <t>Call schedule</t>
   </si>
 </sst>
 </file>
@@ -630,8 +732,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -696,7 +852,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -727,6 +883,33 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -757,6 +940,33 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1086,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A160" sqref="A160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1590,7 +1800,7 @@
     <row r="50" spans="1:2">
       <c r="A50" t="str">
         <f>original!A51</f>
-        <v>Meeting, schedule</v>
+        <v>Meeting schedule</v>
       </c>
       <c r="B50" t="str">
         <f>original!B51</f>
@@ -1600,7 +1810,7 @@
     <row r="51" spans="1:2">
       <c r="A51" t="str">
         <f>original!A52</f>
-        <v>Call, schedule</v>
+        <v>Call schedule</v>
       </c>
       <c r="B51" t="str">
         <f>original!B52</f>
@@ -1800,407 +2010,407 @@
     <row r="71" spans="1:2">
       <c r="A71" t="str">
         <f>original!A72</f>
-        <v>Add item to task list</v>
+        <v>2+2</v>
       </c>
       <c r="B71" t="str">
         <f>original!B72</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="str">
         <f>original!A73</f>
-        <v>Add item to to-do list</v>
+        <v>5*5/12</v>
       </c>
       <c r="B72" t="str">
         <f>original!B73</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="str">
         <f>original!A74</f>
-        <v>New action item</v>
+        <v>122*254/5</v>
       </c>
       <c r="B73" t="str">
         <f>original!B74</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="str">
         <f>original!A75</f>
-        <v>New action item for list</v>
+        <v>66/34</v>
       </c>
       <c r="B74" t="str">
         <f>original!B75</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="str">
         <f>original!A76</f>
-        <v xml:space="preserve">Action item </v>
+        <v>2-5*5</v>
       </c>
       <c r="B75" t="str">
         <f>original!B76</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="str">
         <f>original!A77</f>
-        <v>New task</v>
+        <v>(2*5)*5-(9/8)</v>
       </c>
       <c r="B76" t="str">
         <f>original!B77</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="str">
         <f>original!A78</f>
-        <v>update task</v>
+        <v>123*984/2</v>
       </c>
       <c r="B77" t="str">
         <f>original!B78</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="str">
         <f>original!A79</f>
-        <v>add task</v>
+        <v>(234-567)/453</v>
       </c>
       <c r="B78" t="str">
         <f>original!B79</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="str">
         <f>original!A80</f>
-        <v>to do *</v>
+        <v>255*255</v>
       </c>
       <c r="B79" t="str">
         <f>original!B80</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="str">
         <f>original!A81</f>
-        <v>create new task</v>
+        <v>122*122</v>
       </c>
       <c r="B80" t="str">
         <f>original!B81</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="str">
         <f>original!A82</f>
-        <v>add new task</v>
+        <v>8^2</v>
       </c>
       <c r="B81" t="str">
         <f>original!B82</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="str">
         <f>original!A83</f>
-        <v>update task list</v>
+        <v>12^100</v>
       </c>
       <c r="B82" t="str">
         <f>original!B83</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="str">
         <f>original!A84</f>
-        <v>task list update</v>
+        <v>12*12</v>
       </c>
       <c r="B83" t="str">
         <f>original!B84</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="str">
         <f>original!A85</f>
-        <v>task list - new item</v>
+        <v>133*133</v>
       </c>
       <c r="B84" t="str">
         <f>original!B85</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="str">
         <f>original!A86</f>
-        <v>new item for task list</v>
+        <v>2^8</v>
       </c>
       <c r="B85" t="str">
         <f>original!B86</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="str">
         <f>original!A87</f>
-        <v>Reminder</v>
+        <v>5 feet to inches</v>
       </c>
       <c r="B86" t="str">
         <f>original!B87</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="str">
         <f>original!A88</f>
-        <v>Reminder for task list</v>
+        <v>5 inches to feet</v>
       </c>
       <c r="B87" t="str">
         <f>original!B88</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="str">
         <f>original!A89</f>
-        <v>add reminder for task list to *</v>
+        <v>10 quarts to gallons</v>
       </c>
       <c r="B88" t="str">
         <f>original!B89</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="str">
         <f>original!A90</f>
-        <v>reminder to * add to task list</v>
+        <v>5 hours to days</v>
       </c>
       <c r="B89" t="str">
         <f>original!B90</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="str">
         <f>original!A91</f>
-        <v>personal assistant - add to task list</v>
+        <v>10 mins to seconds</v>
       </c>
       <c r="B90" t="str">
         <f>original!B91</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="str">
         <f>original!A92</f>
-        <v>take a note</v>
+        <v>10 seconds to mins</v>
       </c>
       <c r="B91" t="str">
         <f>original!B92</f>
-        <v>action-task-create</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="str">
         <f>original!A93</f>
-        <v>knock knock</v>
+        <v>5 meters to miles</v>
       </c>
       <c r="B92" t="str">
         <f>original!B93</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="str">
         <f>original!A94</f>
-        <v>Say something funny</v>
+        <v>500 miles to kilometers</v>
       </c>
       <c r="B93" t="str">
         <f>original!B94</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="str">
         <f>original!A95</f>
-        <v>Tell me a joke</v>
+        <v>5000 feet to miles</v>
       </c>
       <c r="B94" t="str">
         <f>original!B95</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="str">
         <f>original!A96</f>
-        <v>cat rat sat bat mat</v>
+        <v>1 mile to kilometers</v>
       </c>
       <c r="B95" t="str">
         <f>original!B96</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="str">
         <f>original!A97</f>
-        <v>roses are red violets are blue</v>
+        <v>10 kilometers to miles</v>
       </c>
       <c r="B96" t="str">
         <f>original!B97</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="str">
         <f>original!A98</f>
-        <v>Tell me a haiku</v>
+        <v>10 kgs to pounds</v>
       </c>
       <c r="B97" t="str">
         <f>original!B98</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="str">
         <f>original!A99</f>
-        <v>chicken or the egg?</v>
+        <v>10 grams to ounces</v>
       </c>
       <c r="B98" t="str">
         <f>original!B99</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="str">
         <f>original!A100</f>
-        <v>Tell me a riddle</v>
+        <v>20 ounces to pounds</v>
       </c>
       <c r="B99" t="str">
         <f>original!B100</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="str">
         <f>original!A101</f>
-        <v>Tell me a story</v>
+        <v>20 pounts to grams</v>
       </c>
       <c r="B100" t="str">
         <f>original!B101</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="str">
         <f>original!A102</f>
-        <v>1 plus 1</v>
+        <v>1 oz to grams</v>
       </c>
       <c r="B101" t="str">
         <f>original!B102</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="str">
         <f>original!A103</f>
-        <v>1+1</v>
+        <v>Do you know a good joke?</v>
       </c>
       <c r="B102" t="str">
         <f>original!B103</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="str">
         <f>original!A104</f>
-        <v>1+1=?</v>
+        <v>Tell me a funny joke</v>
       </c>
       <c r="B103" t="str">
         <f>original!B104</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="str">
         <f>original!A105</f>
-        <v>10 plus 10</v>
+        <v>Tell me a joke</v>
       </c>
       <c r="B104" t="str">
         <f>original!B105</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="str">
         <f>original!A106</f>
-        <v>10 + 10 =</v>
+        <v>Tell me a story</v>
       </c>
       <c r="B105" t="str">
         <f>original!B106</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="str">
         <f>original!A107</f>
-        <v>10+10=?</v>
+        <v>Tell me something funny?</v>
       </c>
       <c r="B106" t="str">
         <f>original!B107</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="str">
         <f>original!A108</f>
-        <v>100 minus 10</v>
+        <v>Make me laugh</v>
       </c>
       <c r="B107" t="str">
         <f>original!B108</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="str">
         <f>original!A109</f>
-        <v>5 plus five</v>
+        <v>Make a joke</v>
       </c>
       <c r="B108" t="str">
         <f>original!B109</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="str">
         <f>original!A110</f>
-        <v>a million plus a billion?</v>
+        <v>Know any good jokes</v>
       </c>
       <c r="B109" t="str">
         <f>original!B110</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="str">
         <f>original!A111</f>
-        <v>infinity</v>
+        <v>Tell me another joke</v>
       </c>
       <c r="B110" t="str">
         <f>original!B111</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="str">
         <f>original!A112</f>
-        <v>infinity / infinity</v>
+        <v>1 plus 1</v>
       </c>
       <c r="B111" t="str">
         <f>original!B112</f>
@@ -2210,7 +2420,7 @@
     <row r="112" spans="1:2">
       <c r="A112" t="str">
         <f>original!A113</f>
-        <v>infinity divided by zero</v>
+        <v>1+1</v>
       </c>
       <c r="B112" t="str">
         <f>original!B113</f>
@@ -2220,7 +2430,7 @@
     <row r="113" spans="1:2">
       <c r="A113" t="str">
         <f>original!A114</f>
-        <v>infinity/infinity</v>
+        <v>1+1=?</v>
       </c>
       <c r="B113" t="str">
         <f>original!B114</f>
@@ -2230,7 +2440,7 @@
     <row r="114" spans="1:2">
       <c r="A114" t="str">
         <f>original!A115</f>
-        <v>What is * divided by zero?</v>
+        <v>10 plus 10</v>
       </c>
       <c r="B114" t="str">
         <f>original!B115</f>
@@ -2240,7 +2450,7 @@
     <row r="115" spans="1:2">
       <c r="A115" t="str">
         <f>original!A116</f>
-        <v>What is 1/0?</v>
+        <v>10 + 10 =</v>
       </c>
       <c r="B115" t="str">
         <f>original!B116</f>
@@ -2250,7 +2460,7 @@
     <row r="116" spans="1:2">
       <c r="A116" t="str">
         <f>original!A117</f>
-        <v>What is 1+1?</v>
+        <v>10+10=?</v>
       </c>
       <c r="B116" t="str">
         <f>original!B117</f>
@@ -2260,7 +2470,7 @@
     <row r="117" spans="1:2">
       <c r="A117" t="str">
         <f>original!A118</f>
-        <v>What is 2+2</v>
+        <v>100 minus 10</v>
       </c>
       <c r="B117" t="str">
         <f>original!B118</f>
@@ -2270,7 +2480,7 @@
     <row r="118" spans="1:2">
       <c r="A118" t="str">
         <f>original!A119</f>
-        <v>what is nine plus fourteen?</v>
+        <v>5 plus five</v>
       </c>
       <c r="B118" t="str">
         <f>original!B119</f>
@@ -2280,310 +2490,410 @@
     <row r="119" spans="1:2">
       <c r="A119" t="str">
         <f>original!A120</f>
-        <v>'agk4'3k'p0f23k</v>
+        <v>a million plus a billion?</v>
       </c>
       <c r="B119" t="str">
         <f>original!B120</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="str">
         <f>original!A121</f>
-        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
+        <v>infinity</v>
       </c>
       <c r="B120" t="str">
         <f>original!B121</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="str">
         <f>original!A122</f>
-        <v>292-494f4</v>
+        <v>infinity / infinity</v>
       </c>
       <c r="B121" t="str">
         <f>original!B122</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="str">
         <f>original!A123</f>
-        <v>ajfskdw49urwe0w3ufiwel</v>
+        <v>infinity divided by zero</v>
       </c>
       <c r="B122" t="str">
         <f>original!B123</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="str">
         <f>original!A124</f>
-        <v>asd f efwefjkw jkl</v>
+        <v>infinity/infinity</v>
       </c>
       <c r="B123" t="str">
         <f>original!B124</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="str">
         <f>original!A125</f>
-        <v>aslkdjal</v>
+        <v>What is * divided by zero?</v>
       </c>
       <c r="B124" t="str">
         <f>original!B125</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="str">
         <f>original!A126</f>
-        <v>jklfadsk23450923u u9q3uf203 9u</v>
+        <v>What is 1/0?</v>
       </c>
       <c r="B125" t="str">
         <f>original!B126</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="str">
         <f>original!A127</f>
-        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
+        <v>What is 1+1?</v>
       </c>
       <c r="B126" t="str">
         <f>original!B127</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="str">
         <f>original!A128</f>
-        <v>blah blah blah</v>
+        <v>What is 2+2</v>
       </c>
       <c r="B127" t="str">
         <f>original!B128</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="str">
         <f>original!A129</f>
-        <v>Is god real?</v>
+        <v>what is nine plus fourteen?</v>
       </c>
       <c r="B128" t="str">
         <f>original!B129</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="str">
         <f>original!A130</f>
-        <v>What is the meaning of life?</v>
+        <v>'agk4'3k'p0f23k</v>
       </c>
       <c r="B129" t="str">
         <f>original!B130</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
         <f>original!A131</f>
-        <v>why do we die?</v>
+        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
       </c>
       <c r="B130" t="str">
         <f>original!B131</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
         <f>original!A132</f>
-        <v>why do we live?</v>
+        <v>292-494f4</v>
       </c>
       <c r="B131" t="str">
         <f>original!B132</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
         <f>original!A133</f>
-        <v>what is * in light years?</v>
+        <v>ajfskdw49urwe0w3ufiwel</v>
       </c>
       <c r="B132" t="str">
         <f>original!B133</f>
-        <v>respond-off-topic-science</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
         <f>original!A134</f>
-        <v>I'm tired</v>
+        <v>asd f efwefjkw jkl</v>
       </c>
       <c r="B133" t="str">
         <f>original!B134</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
         <f>original!A135</f>
-        <v>I'm drunk</v>
+        <v>aslkdjal</v>
       </c>
       <c r="B134" t="str">
         <f>original!B135</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
         <f>original!A136</f>
-        <v>I'm naked</v>
+        <v>jklfadsk23450923u u9q3uf203 9u</v>
       </c>
       <c r="B135" t="str">
         <f>original!B136</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
         <f>original!A137</f>
-        <v>Talk dirty to me</v>
+        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
       </c>
       <c r="B136" t="str">
         <f>original!B137</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
         <f>original!A138</f>
-        <v>I love you</v>
+        <v>blah blah blah</v>
       </c>
       <c r="B137" t="str">
         <f>original!B138</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
         <f>original!A139</f>
-        <v>Ask me a question</v>
+        <v>Is god real?</v>
       </c>
       <c r="B138" t="str">
         <f>original!B139</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
         <f>original!A140</f>
-        <v>i had a terrible day!</v>
+        <v>What is the meaning of life?</v>
       </c>
       <c r="B139" t="str">
         <f>original!B140</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
         <f>original!A141</f>
-        <v>I'm sad</v>
+        <v>why do we die?</v>
       </c>
       <c r="B140" t="str">
         <f>original!B141</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
         <f>original!A142</f>
-        <v>my computer broke!</v>
+        <v>why do we live?</v>
       </c>
       <c r="B141" t="str">
         <f>original!B142</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
         <f>original!A143</f>
-        <v>Do you have eyes?</v>
+        <v>what is * in light years?</v>
       </c>
       <c r="B142" t="str">
         <f>original!B143</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-science</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
         <f>original!A144</f>
-        <v>where is your hardware?</v>
+        <v>I'm tired</v>
       </c>
       <c r="B143" t="str">
         <f>original!B144</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
         <f>original!A145</f>
-        <v>are you happy?</v>
+        <v>I'm drunk</v>
       </c>
       <c r="B144" t="str">
         <f>original!B145</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
         <f>original!A146</f>
-        <v>Do you follow the three laws of robotics?</v>
+        <v>I'm naked</v>
       </c>
       <c r="B145" t="str">
         <f>original!B146</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
         <f>original!A147</f>
-        <v>Do you have feelings?</v>
+        <v>Talk dirty to me</v>
       </c>
       <c r="B146" t="str">
         <f>original!B147</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
         <f>original!A148</f>
-        <v>How old are you</v>
+        <v>I love you</v>
       </c>
       <c r="B147" t="str">
         <f>original!B148</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
         <f>original!A149</f>
-        <v>What is your favorite color?</v>
+        <v>Ask me a question</v>
       </c>
       <c r="B148" t="str">
         <f>original!B149</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
         <f>original!A150</f>
-        <v>What's your favourite animal?</v>
+        <v>i had a terrible day!</v>
       </c>
       <c r="B149" t="str">
         <f>original!B150</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="str">
+        <f>original!A151</f>
+        <v>I'm sad</v>
+      </c>
+      <c r="B150" t="str">
+        <f>original!B151</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="str">
+        <f>original!A152</f>
+        <v>my computer broke!</v>
+      </c>
+      <c r="B151" t="str">
+        <f>original!B152</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="str">
+        <f>original!A153</f>
+        <v>Do you have eyes?</v>
+      </c>
+      <c r="B152" t="str">
+        <f>original!B153</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="str">
+        <f>original!A154</f>
+        <v>where is your hardware?</v>
+      </c>
+      <c r="B153" t="str">
+        <f>original!B154</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="str">
+        <f>original!A155</f>
+        <v>are you happy?</v>
+      </c>
+      <c r="B154" t="str">
+        <f>original!B155</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="str">
+        <f>original!A156</f>
+        <v>Do you follow the three laws of robotics?</v>
+      </c>
+      <c r="B155" t="str">
+        <f>original!B156</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="str">
+        <f>original!A157</f>
+        <v>Do you have feelings?</v>
+      </c>
+      <c r="B156" t="str">
+        <f>original!B157</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="str">
+        <f>original!A158</f>
+        <v>How old are you</v>
+      </c>
+      <c r="B157" t="str">
+        <f>original!B158</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="str">
+        <f>original!A159</f>
+        <v>What is your favorite color?</v>
+      </c>
+      <c r="B158" t="str">
+        <f>original!B159</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="str">
+        <f>original!A160</f>
+        <v>What's your favourite animal?</v>
+      </c>
+      <c r="B159" t="str">
+        <f>original!B160</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
@@ -2600,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="A150" sqref="A150"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2630,17 +2940,17 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(C2,"-",D2,"-",E2)</f>
+        <f t="shared" ref="B2:B33" si="0">CONCATENATE(C2,"-",D2,"-",E2)</f>
         <v>action-email-create</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -2648,17 +2958,17 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE(C3,"-",D3,"-",E3)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -2666,17 +2976,17 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="str">
-        <f>CONCATENATE(C4,"-",D4,"-",E4)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -2684,17 +2994,17 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE(C5,"-",D5,"-",E5)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -2702,17 +3012,17 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE(C6,"-",D6,"-",E6)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -2720,17 +3030,17 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" t="str">
-        <f>CONCATENATE(C7,"-",D7,"-",E7)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2738,17 +3048,17 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE(C8,"-",D8,"-",E8)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -2756,17 +3066,17 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE(C9,"-",D9,"-",E9)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -2774,17 +3084,17 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="str">
-        <f>CONCATENATE(C10,"-",D10,"-",E10)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -2792,17 +3102,17 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE(C11,"-",D11,"-",E11)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -2810,17 +3120,17 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B12" t="str">
-        <f>CONCATENATE(C12,"-",D12,"-",E12)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -2828,17 +3138,17 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE(C13,"-",D13,"-",E13)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -2846,17 +3156,17 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="str">
-        <f>CONCATENATE(C14,"-",D14,"-",E14)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -2864,17 +3174,17 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="str">
-        <f>CONCATENATE(C15,"-",D15,"-",E15)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -2882,17 +3192,17 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>action-email-create</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" t="str">
-        <f>CONCATENATE(C16,"-",D16,"-",E16)</f>
-        <v>action-email-create</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>39</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -2900,17 +3210,17 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" t="str">
-        <f>CONCATENATE(C17,"-",D17,"-",E17)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -2918,17 +3228,17 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE(C18,"-",D18,"-",E18)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -2936,17 +3246,17 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B19" t="str">
-        <f>CONCATENATE(C19,"-",D19,"-",E19)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -2954,17 +3264,17 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B20" t="str">
-        <f>CONCATENATE(C20,"-",D20,"-",E20)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -2972,17 +3282,17 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B21" t="str">
-        <f>CONCATENATE(C21,"-",D21,"-",E21)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -2990,17 +3300,17 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B22" t="str">
-        <f>CONCATENATE(C22,"-",D22,"-",E22)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -3008,17 +3318,17 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B23" t="str">
-        <f>CONCATENATE(C23,"-",D23,"-",E23)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -3026,17 +3336,17 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B24" t="str">
-        <f>CONCATENATE(C24,"-",D24,"-",E24)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -3044,17 +3354,17 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B25" t="str">
-        <f>CONCATENATE(C25,"-",D25,"-",E25)</f>
+        <f t="shared" si="0"/>
         <v>action-email-create</v>
       </c>
       <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -3062,10 +3372,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B26" t="str">
-        <f>CONCATENATE(C26,"-",D26,"-",E26)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C26" t="s">
@@ -3080,10 +3390,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B27" t="str">
-        <f>CONCATENATE(C27,"-",D27,"-",E27)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C27" t="s">
@@ -3098,10 +3408,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B28" t="str">
-        <f>CONCATENATE(C28,"-",D28,"-",E28)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C28" t="s">
@@ -3116,10 +3426,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B29" t="str">
-        <f>CONCATENATE(C29,"-",D29,"-",E29)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C29" t="s">
@@ -3134,10 +3444,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B30" t="str">
-        <f>CONCATENATE(C30,"-",D30,"-",E30)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C30" t="s">
@@ -3152,10 +3462,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B31" t="str">
-        <f>CONCATENATE(C31,"-",D31,"-",E31)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C31" t="s">
@@ -3170,10 +3480,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B32" t="str">
-        <f>CONCATENATE(C32,"-",D32,"-",E32)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C32" t="s">
@@ -3188,10 +3498,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B33" t="str">
-        <f>CONCATENATE(C33,"-",D33,"-",E33)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C33" t="s">
@@ -3206,10 +3516,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B34" t="str">
-        <f>CONCATENATE(C34,"-",D34,"-",E34)</f>
+        <f t="shared" ref="B34:B65" si="1">CONCATENATE(C34,"-",D34,"-",E34)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C34" t="s">
@@ -3224,10 +3534,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B35" t="str">
-        <f>CONCATENATE(C35,"-",D35,"-",E35)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C35" t="s">
@@ -3242,10 +3552,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B36" t="str">
-        <f>CONCATENATE(C36,"-",D36,"-",E36)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C36" t="s">
@@ -3260,10 +3570,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B37" t="str">
-        <f>CONCATENATE(C37,"-",D37,"-",E37)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C37" t="s">
@@ -3278,10 +3588,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B38" t="str">
-        <f>CONCATENATE(C38,"-",D38,"-",E38)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C38" t="s">
@@ -3296,10 +3606,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B39" t="str">
-        <f>CONCATENATE(C39,"-",D39,"-",E39)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C39" t="s">
@@ -3314,10 +3624,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B40" t="str">
-        <f>CONCATENATE(C40,"-",D40,"-",E40)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C40" t="s">
@@ -3332,10 +3642,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B41" t="str">
-        <f>CONCATENATE(C41,"-",D41,"-",E41)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C41" t="s">
@@ -3353,7 +3663,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="str">
-        <f>CONCATENATE(C42,"-",D42,"-",E42)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C42" t="s">
@@ -3371,7 +3681,7 @@
         <v>9</v>
       </c>
       <c r="B43" t="str">
-        <f>CONCATENATE(C43,"-",D43,"-",E43)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C43" t="s">
@@ -3389,7 +3699,7 @@
         <v>10</v>
       </c>
       <c r="B44" t="str">
-        <f>CONCATENATE(C44,"-",D44,"-",E44)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C44" t="s">
@@ -3407,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="str">
-        <f>CONCATENATE(C45,"-",D45,"-",E45)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C45" t="s">
@@ -3425,7 +3735,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="str">
-        <f>CONCATENATE(C46,"-",D46,"-",E46)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C46" t="s">
@@ -3443,7 +3753,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="str">
-        <f>CONCATENATE(C47,"-",D47,"-",E47)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C47" t="s">
@@ -3461,7 +3771,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="str">
-        <f>CONCATENATE(C48,"-",D48,"-",E48)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C48" t="s">
@@ -3479,7 +3789,7 @@
         <v>15</v>
       </c>
       <c r="B49" t="str">
-        <f>CONCATENATE(C49,"-",D49,"-",E49)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C49" t="s">
@@ -3497,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="B50" t="str">
-        <f>CONCATENATE(C50,"-",D50,"-",E50)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C50" t="s">
@@ -3512,10 +3822,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="B51" t="str">
-        <f>CONCATENATE(C51,"-",D51,"-",E51)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C51" t="s">
@@ -3530,10 +3840,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="B52" t="str">
-        <f>CONCATENATE(C52,"-",D52,"-",E52)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C52" t="s">
@@ -3548,10 +3858,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B53" t="str">
-        <f>CONCATENATE(C53,"-",D53,"-",E53)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C53" t="s">
@@ -3566,10 +3876,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B54" t="str">
-        <f>CONCATENATE(C54,"-",D54,"-",E54)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C54" t="s">
@@ -3584,10 +3894,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B55" t="str">
-        <f>CONCATENATE(C55,"-",D55,"-",E55)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C55" t="s">
@@ -3602,10 +3912,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B56" t="str">
-        <f>CONCATENATE(C56,"-",D56,"-",E56)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C56" t="s">
@@ -3623,7 +3933,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="str">
-        <f>CONCATENATE(C57,"-",D57,"-",E57)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C57" t="s">
@@ -3638,10 +3948,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B58" t="str">
-        <f>CONCATENATE(C58,"-",D58,"-",E58)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C58" t="s">
@@ -3656,10 +3966,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B59" t="str">
-        <f>CONCATENATE(C59,"-",D59,"-",E59)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C59" t="s">
@@ -3674,10 +3984,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B60" t="str">
-        <f>CONCATENATE(C60,"-",D60,"-",E60)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C60" t="s">
@@ -3692,10 +4002,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B61" t="str">
-        <f>CONCATENATE(C61,"-",D61,"-",E61)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C61" t="s">
@@ -3710,10 +4020,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B62" t="str">
-        <f>CONCATENATE(C62,"-",D62,"-",E62)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C62" t="s">
@@ -3728,10 +4038,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B63" t="str">
-        <f>CONCATENATE(C63,"-",D63,"-",E63)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C63" t="s">
@@ -3746,10 +4056,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B64" t="str">
-        <f>CONCATENATE(C64,"-",D64,"-",E64)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C64" t="s">
@@ -3764,10 +4074,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B65" t="str">
-        <f>CONCATENATE(C65,"-",D65,"-",E65)</f>
+        <f t="shared" si="1"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C65" t="s">
@@ -3782,10 +4092,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B66" t="str">
-        <f>CONCATENATE(C66,"-",D66,"-",E66)</f>
+        <f t="shared" ref="B66:B72" si="2">CONCATENATE(C66,"-",D66,"-",E66)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C66" t="s">
@@ -3800,10 +4110,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B67" t="str">
-        <f>CONCATENATE(C67,"-",D67,"-",E67)</f>
+        <f t="shared" si="2"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C67" t="s">
@@ -3818,10 +4128,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B68" t="str">
-        <f>CONCATENATE(C68,"-",D68,"-",E68)</f>
+        <f t="shared" si="2"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C68" t="s">
@@ -3836,10 +4146,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B69" t="str">
-        <f>CONCATENATE(C69,"-",D69,"-",E69)</f>
+        <f t="shared" si="2"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C69" t="s">
@@ -3854,10 +4164,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B70" t="str">
-        <f>CONCATENATE(C70,"-",D70,"-",E70)</f>
+        <f t="shared" si="2"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C70" t="s">
@@ -3872,10 +4182,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B71" t="str">
-        <f>CONCATENATE(C71,"-",D71,"-",E71)</f>
+        <f t="shared" si="2"/>
         <v>action-meeting-create</v>
       </c>
       <c r="C71" t="s">
@@ -3890,1428 +4200,1608 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="B72" t="str">
-        <f>CONCATENATE(C72,"-",D72,"-",E72)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="2"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="B73" t="str">
-        <f>CONCATENATE(C73,"-",D73,"-",E73)</f>
-        <v>action-task-create</v>
+        <f t="shared" ref="B73:B86" si="3">CONCATENATE(C73,"-",D73,"-",E73)</f>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="B74" t="str">
-        <f>CONCATENATE(C74,"-",D74,"-",E74)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="B75" t="str">
-        <f>CONCATENATE(C75,"-",D75,"-",E75)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="B76" t="str">
-        <f>CONCATENATE(C76,"-",D76,"-",E76)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B77" t="str">
-        <f>CONCATENATE(C77,"-",D77,"-",E77)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="B78" t="str">
-        <f>CONCATENATE(C78,"-",D78,"-",E78)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="B79" t="str">
-        <f>CONCATENATE(C79,"-",D79,"-",E79)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="B80" t="str">
-        <f>CONCATENATE(C80,"-",D80,"-",E80)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D80" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="B81" t="str">
-        <f>CONCATENATE(C81,"-",D81,"-",E81)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D81" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="B82" t="str">
-        <f>CONCATENATE(C82,"-",D82,"-",E82)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D82" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B83" t="str">
-        <f>CONCATENATE(C83,"-",D83,"-",E83)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="B84" t="str">
-        <f>CONCATENATE(C84,"-",D84,"-",E84)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" ref="B85:B116" si="0">CONCATENATE(C85,"-",D85,"-",E85)</f>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="3"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" ref="B87:B103" si="4">CONCATENATE(C87,"-",D87,"-",E87)</f>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>179</v>
+        <v>206</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="0"/>
-        <v>action-task-create</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>209</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D94" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>210</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E95" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C96" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E96" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D99" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>88</v>
+        <v>215</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D100" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E100" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C101" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D101" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E101" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D102" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="4"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D103" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>179</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" ref="B104:B126" si="5">CONCATENATE(C104,"-",D104,"-",E104)</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D104" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B105" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D105" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B106" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E106" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="B107" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E107" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="B108" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E108" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="B109" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E109" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c r="B110" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C110" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D110" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E110" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>66</v>
+        <v>183</v>
       </c>
       <c r="B111" t="str">
-        <f t="shared" si="0"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C111" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D111" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E112" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="B113" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C113" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D113" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C114" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D114" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C115" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D115" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E115" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C116" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D116" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" ref="B117:B148" si="1">CONCATENATE(C117,"-",D117,"-",E117)</f>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C117" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D117" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C118" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D118" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C119" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D119" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C120" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D120" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E120" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C121" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D121" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C122" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D122" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C123" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D123" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E123" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C124" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D124" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E124" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D125" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="5"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D126" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" ref="B127:B158" si="6">CONCATENATE(C127,"-",D127,"-",E127)</f>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D127" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="B128" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D128" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B129" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D129" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E129" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="B130" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D130" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E130" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B131" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D131" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E131" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="B132" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C132" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D132" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E132" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B133" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-science</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C133" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D133" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E133" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B134" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C134" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E134" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B135" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C135" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D135" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E135" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B136" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C136" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D136" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E136" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C137" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D137" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E137" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C138" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D138" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E138" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C139" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D139" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C140" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D140" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E140" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C141" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D141" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C142" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D142" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E142" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
+        <v>52</v>
+      </c>
+      <c r="B143" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-science</v>
+      </c>
+      <c r="C143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143" t="s">
         <v>93</v>
       </c>
-      <c r="B143" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-      <c r="C143" t="s">
-        <v>101</v>
-      </c>
-      <c r="D143" t="s">
-        <v>102</v>
-      </c>
       <c r="E143" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D144" t="s">
+        <v>93</v>
+      </c>
+      <c r="E144" t="s">
         <v>101</v>
-      </c>
-      <c r="D144" t="s">
-        <v>102</v>
-      </c>
-      <c r="E144" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C145" t="s">
+        <v>92</v>
+      </c>
+      <c r="D145" t="s">
+        <v>93</v>
+      </c>
+      <c r="E145" t="s">
         <v>101</v>
-      </c>
-      <c r="D145" t="s">
-        <v>102</v>
-      </c>
-      <c r="E145" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146" t="s">
+        <v>93</v>
+      </c>
+      <c r="E146" t="s">
         <v>101</v>
-      </c>
-      <c r="D146" t="s">
-        <v>102</v>
-      </c>
-      <c r="E146" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C147" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+      <c r="E147" t="s">
         <v>101</v>
-      </c>
-      <c r="D147" t="s">
-        <v>102</v>
-      </c>
-      <c r="E147" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="1"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C148" t="s">
+        <v>92</v>
+      </c>
+      <c r="D148" t="s">
+        <v>93</v>
+      </c>
+      <c r="E148" t="s">
         <v>101</v>
-      </c>
-      <c r="D148" t="s">
-        <v>102</v>
-      </c>
-      <c r="E148" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" ref="B149:B150" si="2">CONCATENATE(C149,"-",D149,"-",E149)</f>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C149" t="s">
+        <v>92</v>
+      </c>
+      <c r="D149" t="s">
+        <v>93</v>
+      </c>
+      <c r="E149" t="s">
         <v>101</v>
-      </c>
-      <c r="D149" t="s">
-        <v>102</v>
-      </c>
-      <c r="E149" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+      <c r="C150" t="s">
+        <v>92</v>
+      </c>
+      <c r="D150" t="s">
+        <v>93</v>
+      </c>
+      <c r="E150" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+      <c r="C151" t="s">
+        <v>92</v>
+      </c>
+      <c r="D151" t="s">
+        <v>93</v>
+      </c>
+      <c r="E151" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>82</v>
+      </c>
+      <c r="B152" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+      <c r="C152" t="s">
+        <v>92</v>
+      </c>
+      <c r="D152" t="s">
+        <v>93</v>
+      </c>
+      <c r="E152" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>84</v>
+      </c>
+      <c r="B153" t="str">
+        <f t="shared" si="6"/>
         <v>respond-off-topic-watson-focus</v>
       </c>
-      <c r="C150" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="C153" t="s">
+        <v>92</v>
+      </c>
+      <c r="D153" t="s">
+        <v>93</v>
+      </c>
+      <c r="E153" t="s">
         <v>102</v>
       </c>
-      <c r="E150" t="s">
-        <v>111</v>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>85</v>
+      </c>
+      <c r="B154" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C154" t="s">
+        <v>92</v>
+      </c>
+      <c r="D154" t="s">
+        <v>93</v>
+      </c>
+      <c r="E154" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>86</v>
+      </c>
+      <c r="B155" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C155" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155" t="s">
+        <v>93</v>
+      </c>
+      <c r="E155" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>87</v>
+      </c>
+      <c r="B156" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C156" t="s">
+        <v>92</v>
+      </c>
+      <c r="D156" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C157" t="s">
+        <v>92</v>
+      </c>
+      <c r="D157" t="s">
+        <v>93</v>
+      </c>
+      <c r="E157" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>89</v>
+      </c>
+      <c r="B158" t="str">
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C158" t="s">
+        <v>92</v>
+      </c>
+      <c r="D158" t="s">
+        <v>93</v>
+      </c>
+      <c r="E158" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" t="str">
+        <f t="shared" ref="B159:B160" si="7">CONCATENATE(C159,"-",D159,"-",E159)</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C159" t="s">
+        <v>92</v>
+      </c>
+      <c r="D159" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>91</v>
+      </c>
+      <c r="B160" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C160" t="s">
+        <v>92</v>
+      </c>
+      <c r="D160" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E96">
+  <autoFilter ref="A1:E106">
     <sortState ref="A2:E163">
       <sortCondition ref="B1:B163"/>
     </sortState>
@@ -5328,20 +5818,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD18"/>
+      <selection activeCell="A19" sqref="A19:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" t="str">
-        <f>CONCATENATE(C1,"-",D1,"-",E1)</f>
+        <f t="shared" ref="B1:B39" si="0">CONCATENATE(C1,"-",D1,"-",E1)</f>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C1" t="s">
@@ -5351,15 +5841,15 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE(C2,"-",D2,"-",E2)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C2" t="s">
@@ -5369,15 +5859,15 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE(C3,"-",D3,"-",E3)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C3" t="s">
@@ -5387,15 +5877,15 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="str">
-        <f>CONCATENATE(C4,"-",D4,"-",E4)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C4" t="s">
@@ -5405,15 +5895,15 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE(C5,"-",D5,"-",E5)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C5" t="s">
@@ -5423,15 +5913,15 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE(C6,"-",D6,"-",E6)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C6" t="s">
@@ -5441,15 +5931,15 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B7" t="str">
-        <f>CONCATENATE(C7,"-",D7,"-",E7)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C7" t="s">
@@ -5459,15 +5949,15 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE(C8,"-",D8,"-",E8)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C8" t="s">
@@ -5477,15 +5967,15 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE(C9,"-",D9,"-",E9)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C9" t="s">
@@ -5495,15 +5985,15 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B10" t="str">
-        <f>CONCATENATE(C10,"-",D10,"-",E10)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C10" t="s">
@@ -5513,15 +6003,15 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B11" t="str">
-        <f>CONCATENATE(C11,"-",D11,"-",E11)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C11" t="s">
@@ -5531,15 +6021,15 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B12" t="str">
-        <f>CONCATENATE(C12,"-",D12,"-",E12)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C12" t="s">
@@ -5549,15 +6039,15 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B13" t="str">
-        <f>CONCATENATE(C13,"-",D13,"-",E13)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C13" t="s">
@@ -5567,15 +6057,15 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B14" t="str">
-        <f>CONCATENATE(C14,"-",D14,"-",E14)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C14" t="s">
@@ -5585,15 +6075,15 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B15" t="str">
-        <f>CONCATENATE(C15,"-",D15,"-",E15)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C15" t="s">
@@ -5603,15 +6093,15 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B16" t="str">
-        <f>CONCATENATE(C16,"-",D16,"-",E16)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C16" t="s">
@@ -5621,15 +6111,15 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B17" t="str">
-        <f>CONCATENATE(C17,"-",D17,"-",E17)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C17" t="s">
@@ -5639,15 +6129,15 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B18" t="str">
-        <f>CONCATENATE(C18,"-",D18,"-",E18)</f>
+        <f t="shared" si="0"/>
         <v>action-meeting-notify-attendees</v>
       </c>
       <c r="C18" t="s">
@@ -5657,7 +6147,385 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>151</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>151</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>action-task-create</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/nlc/ipa-web-nlc_training.xlsx
+++ b/nlc/ipa-web-nlc_training.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Curated" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Saved" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">original!$A$1:$E$116</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="230">
   <si>
     <t>Input</t>
   </si>
@@ -684,13 +684,43 @@
   </si>
   <si>
     <t>Call schedule</t>
+  </si>
+  <si>
+    <t>send text message</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>send text message to *</t>
+  </si>
+  <si>
+    <t>send sms</t>
+  </si>
+  <si>
+    <t>send sms to *</t>
+  </si>
+  <si>
+    <t>send a message to *</t>
+  </si>
+  <si>
+    <t>send an sms to *</t>
+  </si>
+  <si>
+    <t>send a text message to *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text a message to </t>
+  </si>
+  <si>
+    <t>text a message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -714,6 +744,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -732,7 +767,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,11 +883,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -910,6 +966,16 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -967,6 +1033,16 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1296,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B159"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2010,107 +2086,107 @@
     <row r="71" spans="1:2">
       <c r="A71" t="str">
         <f>original!A72</f>
-        <v>2+2</v>
+        <v>send text message</v>
       </c>
       <c r="B71" t="str">
         <f>original!B72</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="str">
         <f>original!A73</f>
-        <v>5*5/12</v>
+        <v>send text message to *</v>
       </c>
       <c r="B72" t="str">
         <f>original!B73</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="str">
         <f>original!A74</f>
-        <v>122*254/5</v>
+        <v>send sms</v>
       </c>
       <c r="B73" t="str">
         <f>original!B74</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="str">
         <f>original!A75</f>
-        <v>66/34</v>
+        <v>send sms to *</v>
       </c>
       <c r="B74" t="str">
         <f>original!B75</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="str">
         <f>original!A76</f>
-        <v>2-5*5</v>
+        <v>send a message to *</v>
       </c>
       <c r="B75" t="str">
         <f>original!B76</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="str">
         <f>original!A77</f>
-        <v>(2*5)*5-(9/8)</v>
+        <v>send an sms to *</v>
       </c>
       <c r="B76" t="str">
         <f>original!B77</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="str">
         <f>original!A78</f>
-        <v>123*984/2</v>
+        <v>send a text message to *</v>
       </c>
       <c r="B77" t="str">
         <f>original!B78</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="str">
         <f>original!A79</f>
-        <v>(234-567)/453</v>
+        <v>send text message</v>
       </c>
       <c r="B78" t="str">
         <f>original!B79</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="str">
         <f>original!A80</f>
-        <v>255*255</v>
+        <v xml:space="preserve">text a message to </v>
       </c>
       <c r="B79" t="str">
         <f>original!B80</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="str">
         <f>original!A81</f>
-        <v>122*122</v>
+        <v>text a message</v>
       </c>
       <c r="B80" t="str">
         <f>original!B81</f>
-        <v>respond-calculation-numeric</v>
+        <v>action-sms-create</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="str">
         <f>original!A82</f>
-        <v>8^2</v>
+        <v>2+2</v>
       </c>
       <c r="B81" t="str">
         <f>original!B82</f>
@@ -2120,7 +2196,7 @@
     <row r="82" spans="1:2">
       <c r="A82" t="str">
         <f>original!A83</f>
-        <v>12^100</v>
+        <v>5*5/12</v>
       </c>
       <c r="B82" t="str">
         <f>original!B83</f>
@@ -2130,7 +2206,7 @@
     <row r="83" spans="1:2">
       <c r="A83" t="str">
         <f>original!A84</f>
-        <v>12*12</v>
+        <v>122*254/5</v>
       </c>
       <c r="B83" t="str">
         <f>original!B84</f>
@@ -2140,7 +2216,7 @@
     <row r="84" spans="1:2">
       <c r="A84" t="str">
         <f>original!A85</f>
-        <v>133*133</v>
+        <v>66/34</v>
       </c>
       <c r="B84" t="str">
         <f>original!B85</f>
@@ -2150,7 +2226,7 @@
     <row r="85" spans="1:2">
       <c r="A85" t="str">
         <f>original!A86</f>
-        <v>2^8</v>
+        <v>2-5*5</v>
       </c>
       <c r="B85" t="str">
         <f>original!B86</f>
@@ -2160,107 +2236,107 @@
     <row r="86" spans="1:2">
       <c r="A86" t="str">
         <f>original!A87</f>
-        <v>5 feet to inches</v>
+        <v>(2*5)*5-(9/8)</v>
       </c>
       <c r="B86" t="str">
         <f>original!B87</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="str">
         <f>original!A88</f>
-        <v>5 inches to feet</v>
+        <v>123*984/2</v>
       </c>
       <c r="B87" t="str">
         <f>original!B88</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="str">
         <f>original!A89</f>
-        <v>10 quarts to gallons</v>
+        <v>(234-567)/453</v>
       </c>
       <c r="B88" t="str">
         <f>original!B89</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="str">
         <f>original!A90</f>
-        <v>5 hours to days</v>
+        <v>255*255</v>
       </c>
       <c r="B89" t="str">
         <f>original!B90</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="str">
         <f>original!A91</f>
-        <v>10 mins to seconds</v>
+        <v>122*122</v>
       </c>
       <c r="B90" t="str">
         <f>original!B91</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="str">
         <f>original!A92</f>
-        <v>10 seconds to mins</v>
+        <v>8^2</v>
       </c>
       <c r="B91" t="str">
         <f>original!B92</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="str">
         <f>original!A93</f>
-        <v>5 meters to miles</v>
+        <v>12^100</v>
       </c>
       <c r="B92" t="str">
         <f>original!B93</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="str">
         <f>original!A94</f>
-        <v>500 miles to kilometers</v>
+        <v>12*12</v>
       </c>
       <c r="B93" t="str">
         <f>original!B94</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="str">
         <f>original!A95</f>
-        <v>5000 feet to miles</v>
+        <v>133*133</v>
       </c>
       <c r="B94" t="str">
         <f>original!B95</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="str">
         <f>original!A96</f>
-        <v>1 mile to kilometers</v>
+        <v>2^8</v>
       </c>
       <c r="B95" t="str">
         <f>original!B96</f>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="str">
         <f>original!A97</f>
-        <v>10 kilometers to miles</v>
+        <v>5 feet to inches</v>
       </c>
       <c r="B96" t="str">
         <f>original!B97</f>
@@ -2270,7 +2346,7 @@
     <row r="97" spans="1:2">
       <c r="A97" t="str">
         <f>original!A98</f>
-        <v>10 kgs to pounds</v>
+        <v>5 inches to feet</v>
       </c>
       <c r="B97" t="str">
         <f>original!B98</f>
@@ -2280,7 +2356,7 @@
     <row r="98" spans="1:2">
       <c r="A98" t="str">
         <f>original!A99</f>
-        <v>10 grams to ounces</v>
+        <v>10 quarts to gallons</v>
       </c>
       <c r="B98" t="str">
         <f>original!B99</f>
@@ -2290,7 +2366,7 @@
     <row r="99" spans="1:2">
       <c r="A99" t="str">
         <f>original!A100</f>
-        <v>20 ounces to pounds</v>
+        <v>5 hours to days</v>
       </c>
       <c r="B99" t="str">
         <f>original!B100</f>
@@ -2300,7 +2376,7 @@
     <row r="100" spans="1:2">
       <c r="A100" t="str">
         <f>original!A101</f>
-        <v>20 pounts to grams</v>
+        <v>10 mins to seconds</v>
       </c>
       <c r="B100" t="str">
         <f>original!B101</f>
@@ -2310,7 +2386,7 @@
     <row r="101" spans="1:2">
       <c r="A101" t="str">
         <f>original!A102</f>
-        <v>1 oz to grams</v>
+        <v>10 seconds to mins</v>
       </c>
       <c r="B101" t="str">
         <f>original!B102</f>
@@ -2320,197 +2396,197 @@
     <row r="102" spans="1:2">
       <c r="A102" t="str">
         <f>original!A103</f>
-        <v>Do you know a good joke?</v>
+        <v>5 meters to miles</v>
       </c>
       <c r="B102" t="str">
         <f>original!B103</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="str">
         <f>original!A104</f>
-        <v>Tell me a funny joke</v>
+        <v>500 miles to kilometers</v>
       </c>
       <c r="B103" t="str">
         <f>original!B104</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="str">
         <f>original!A105</f>
-        <v>Tell me a joke</v>
+        <v>5000 feet to miles</v>
       </c>
       <c r="B104" t="str">
         <f>original!B105</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="str">
         <f>original!A106</f>
-        <v>Tell me a story</v>
+        <v>1 mile to kilometers</v>
       </c>
       <c r="B105" t="str">
         <f>original!B106</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="str">
         <f>original!A107</f>
-        <v>Tell me something funny?</v>
+        <v>10 kilometers to miles</v>
       </c>
       <c r="B106" t="str">
         <f>original!B107</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="str">
         <f>original!A108</f>
-        <v>Make me laugh</v>
+        <v>10 kgs to pounds</v>
       </c>
       <c r="B107" t="str">
         <f>original!B108</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="str">
         <f>original!A109</f>
-        <v>Make a joke</v>
+        <v>10 grams to ounces</v>
       </c>
       <c r="B108" t="str">
         <f>original!B109</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="str">
         <f>original!A110</f>
-        <v>Know any good jokes</v>
+        <v>20 ounces to pounds</v>
       </c>
       <c r="B109" t="str">
         <f>original!B110</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="str">
         <f>original!A111</f>
-        <v>Tell me another joke</v>
+        <v>20 pounts to grams</v>
       </c>
       <c r="B110" t="str">
         <f>original!B111</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="str">
         <f>original!A112</f>
-        <v>1 plus 1</v>
+        <v>1 oz to grams</v>
       </c>
       <c r="B111" t="str">
         <f>original!B112</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-calculation-conversion</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="str">
         <f>original!A113</f>
-        <v>1+1</v>
+        <v>Do you know a good joke?</v>
       </c>
       <c r="B112" t="str">
         <f>original!B113</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="str">
         <f>original!A114</f>
-        <v>1+1=?</v>
+        <v>Tell me a funny joke</v>
       </c>
       <c r="B113" t="str">
         <f>original!B114</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="str">
         <f>original!A115</f>
-        <v>10 plus 10</v>
+        <v>Tell me a joke</v>
       </c>
       <c r="B114" t="str">
         <f>original!B115</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="str">
         <f>original!A116</f>
-        <v>10 + 10 =</v>
+        <v>Tell me a story</v>
       </c>
       <c r="B115" t="str">
         <f>original!B116</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="str">
         <f>original!A117</f>
-        <v>10+10=?</v>
+        <v>Tell me something funny?</v>
       </c>
       <c r="B116" t="str">
         <f>original!B117</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="str">
         <f>original!A118</f>
-        <v>100 minus 10</v>
+        <v>Make me laugh</v>
       </c>
       <c r="B117" t="str">
         <f>original!B118</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="str">
         <f>original!A119</f>
-        <v>5 plus five</v>
+        <v>Make a joke</v>
       </c>
       <c r="B118" t="str">
         <f>original!B119</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="str">
         <f>original!A120</f>
-        <v>a million plus a billion?</v>
+        <v>Know any good jokes</v>
       </c>
       <c r="B119" t="str">
         <f>original!B120</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="str">
         <f>original!A121</f>
-        <v>infinity</v>
+        <v>Tell me another joke</v>
       </c>
       <c r="B120" t="str">
         <f>original!B121</f>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="str">
         <f>original!A122</f>
-        <v>infinity / infinity</v>
+        <v>1 plus 1</v>
       </c>
       <c r="B121" t="str">
         <f>original!B122</f>
@@ -2520,7 +2596,7 @@
     <row r="122" spans="1:2">
       <c r="A122" t="str">
         <f>original!A123</f>
-        <v>infinity divided by zero</v>
+        <v>1+1</v>
       </c>
       <c r="B122" t="str">
         <f>original!B123</f>
@@ -2530,7 +2606,7 @@
     <row r="123" spans="1:2">
       <c r="A123" t="str">
         <f>original!A124</f>
-        <v>infinity/infinity</v>
+        <v>1+1=?</v>
       </c>
       <c r="B123" t="str">
         <f>original!B124</f>
@@ -2540,7 +2616,7 @@
     <row r="124" spans="1:2">
       <c r="A124" t="str">
         <f>original!A125</f>
-        <v>What is * divided by zero?</v>
+        <v>10 plus 10</v>
       </c>
       <c r="B124" t="str">
         <f>original!B125</f>
@@ -2550,7 +2626,7 @@
     <row r="125" spans="1:2">
       <c r="A125" t="str">
         <f>original!A126</f>
-        <v>What is 1/0?</v>
+        <v>10 + 10 =</v>
       </c>
       <c r="B125" t="str">
         <f>original!B126</f>
@@ -2560,7 +2636,7 @@
     <row r="126" spans="1:2">
       <c r="A126" t="str">
         <f>original!A127</f>
-        <v>What is 1+1?</v>
+        <v>10+10=?</v>
       </c>
       <c r="B126" t="str">
         <f>original!B127</f>
@@ -2570,7 +2646,7 @@
     <row r="127" spans="1:2">
       <c r="A127" t="str">
         <f>original!A128</f>
-        <v>What is 2+2</v>
+        <v>100 minus 10</v>
       </c>
       <c r="B127" t="str">
         <f>original!B128</f>
@@ -2580,7 +2656,7 @@
     <row r="128" spans="1:2">
       <c r="A128" t="str">
         <f>original!A129</f>
-        <v>what is nine plus fourteen?</v>
+        <v>5 plus five</v>
       </c>
       <c r="B128" t="str">
         <f>original!B129</f>
@@ -2590,310 +2666,410 @@
     <row r="129" spans="1:2">
       <c r="A129" t="str">
         <f>original!A130</f>
-        <v>'agk4'3k'p0f23k</v>
+        <v>a million plus a billion?</v>
       </c>
       <c r="B129" t="str">
         <f>original!B130</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
         <f>original!A131</f>
-        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
+        <v>infinity</v>
       </c>
       <c r="B130" t="str">
         <f>original!B131</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
         <f>original!A132</f>
-        <v>292-494f4</v>
+        <v>infinity / infinity</v>
       </c>
       <c r="B131" t="str">
         <f>original!B132</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
         <f>original!A133</f>
-        <v>ajfskdw49urwe0w3ufiwel</v>
+        <v>infinity divided by zero</v>
       </c>
       <c r="B132" t="str">
         <f>original!B133</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
         <f>original!A134</f>
-        <v>asd f efwefjkw jkl</v>
+        <v>infinity/infinity</v>
       </c>
       <c r="B133" t="str">
         <f>original!B134</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
         <f>original!A135</f>
-        <v>aslkdjal</v>
+        <v>What is * divided by zero?</v>
       </c>
       <c r="B134" t="str">
         <f>original!B135</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
         <f>original!A136</f>
-        <v>jklfadsk23450923u u9q3uf203 9u</v>
+        <v>What is 1/0?</v>
       </c>
       <c r="B135" t="str">
         <f>original!B136</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
         <f>original!A137</f>
-        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
+        <v>What is 1+1?</v>
       </c>
       <c r="B136" t="str">
         <f>original!B137</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
         <f>original!A138</f>
-        <v>blah blah blah</v>
+        <v>What is 2+2</v>
       </c>
       <c r="B137" t="str">
         <f>original!B138</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
         <f>original!A139</f>
-        <v>Is god real?</v>
+        <v>what is nine plus fourteen?</v>
       </c>
       <c r="B138" t="str">
         <f>original!B139</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
         <f>original!A140</f>
-        <v>What is the meaning of life?</v>
+        <v>'agk4'3k'p0f23k</v>
       </c>
       <c r="B139" t="str">
         <f>original!B140</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
         <f>original!A141</f>
-        <v>why do we die?</v>
+        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
       </c>
       <c r="B140" t="str">
         <f>original!B141</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
         <f>original!A142</f>
-        <v>why do we live?</v>
+        <v>292-494f4</v>
       </c>
       <c r="B141" t="str">
         <f>original!B142</f>
-        <v>respond-off-topic-philosophy</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
         <f>original!A143</f>
-        <v>what is * in light years?</v>
+        <v>ajfskdw49urwe0w3ufiwel</v>
       </c>
       <c r="B142" t="str">
         <f>original!B143</f>
-        <v>respond-off-topic-science</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
         <f>original!A144</f>
-        <v>I'm tired</v>
+        <v>asd f efwefjkw jkl</v>
       </c>
       <c r="B143" t="str">
         <f>original!B144</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
         <f>original!A145</f>
-        <v>I'm drunk</v>
+        <v>aslkdjal</v>
       </c>
       <c r="B144" t="str">
         <f>original!B145</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
         <f>original!A146</f>
-        <v>I'm naked</v>
+        <v>jklfadsk23450923u u9q3uf203 9u</v>
       </c>
       <c r="B145" t="str">
         <f>original!B146</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
         <f>original!A147</f>
-        <v>Talk dirty to me</v>
+        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
       </c>
       <c r="B146" t="str">
         <f>original!B147</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
         <f>original!A148</f>
-        <v>I love you</v>
+        <v>blah blah blah</v>
       </c>
       <c r="B147" t="str">
         <f>original!B148</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
         <f>original!A149</f>
-        <v>Ask me a question</v>
+        <v>Is god real?</v>
       </c>
       <c r="B148" t="str">
         <f>original!B149</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
         <f>original!A150</f>
-        <v>i had a terrible day!</v>
+        <v>What is the meaning of life?</v>
       </c>
       <c r="B149" t="str">
         <f>original!B150</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="str">
         <f>original!A151</f>
-        <v>I'm sad</v>
+        <v>why do we die?</v>
       </c>
       <c r="B150" t="str">
         <f>original!B151</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="str">
         <f>original!A152</f>
-        <v>my computer broke!</v>
+        <v>why do we live?</v>
       </c>
       <c r="B151" t="str">
         <f>original!B152</f>
-        <v>respond-off-topic-user-focus</v>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="str">
         <f>original!A153</f>
-        <v>Do you have eyes?</v>
+        <v>what is * in light years?</v>
       </c>
       <c r="B152" t="str">
         <f>original!B153</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-science</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="str">
         <f>original!A154</f>
-        <v>where is your hardware?</v>
+        <v>I'm tired</v>
       </c>
       <c r="B153" t="str">
         <f>original!B154</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="str">
         <f>original!A155</f>
-        <v>are you happy?</v>
+        <v>I'm drunk</v>
       </c>
       <c r="B154" t="str">
         <f>original!B155</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="str">
         <f>original!A156</f>
-        <v>Do you follow the three laws of robotics?</v>
+        <v>I'm naked</v>
       </c>
       <c r="B155" t="str">
         <f>original!B156</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="str">
         <f>original!A157</f>
-        <v>Do you have feelings?</v>
+        <v>Talk dirty to me</v>
       </c>
       <c r="B156" t="str">
         <f>original!B157</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="str">
         <f>original!A158</f>
-        <v>How old are you</v>
+        <v>I love you</v>
       </c>
       <c r="B157" t="str">
         <f>original!B158</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="str">
         <f>original!A159</f>
-        <v>What is your favorite color?</v>
+        <v>Ask me a question</v>
       </c>
       <c r="B158" t="str">
         <f>original!B159</f>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="str">
         <f>original!A160</f>
-        <v>What's your favourite animal?</v>
+        <v>i had a terrible day!</v>
       </c>
       <c r="B159" t="str">
         <f>original!B160</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="str">
+        <f>original!A161</f>
+        <v>I'm sad</v>
+      </c>
+      <c r="B160" t="str">
+        <f>original!B161</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="str">
+        <f>original!A162</f>
+        <v>my computer broke!</v>
+      </c>
+      <c r="B161" t="str">
+        <f>original!B162</f>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="str">
+        <f>original!A163</f>
+        <v>Do you have eyes?</v>
+      </c>
+      <c r="B162" t="str">
+        <f>original!B163</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="str">
+        <f>original!A164</f>
+        <v>where is your hardware?</v>
+      </c>
+      <c r="B163" t="str">
+        <f>original!B164</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="str">
+        <f>original!A165</f>
+        <v>are you happy?</v>
+      </c>
+      <c r="B164" t="str">
+        <f>original!B165</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="str">
+        <f>original!A166</f>
+        <v>Do you follow the three laws of robotics?</v>
+      </c>
+      <c r="B165" t="str">
+        <f>original!B166</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="str">
+        <f>original!A167</f>
+        <v>Do you have feelings?</v>
+      </c>
+      <c r="B166" t="str">
+        <f>original!B167</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="str">
+        <f>original!A168</f>
+        <v>How old are you</v>
+      </c>
+      <c r="B167" t="str">
+        <f>original!B168</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="str">
+        <f>original!A169</f>
+        <v>What is your favorite color?</v>
+      </c>
+      <c r="B168" t="str">
+        <f>original!B169</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="str">
+        <f>original!A170</f>
+        <v>What's your favourite animal?</v>
+      </c>
+      <c r="B169" t="str">
+        <f>original!B170</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
@@ -2910,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="B160" sqref="B160"/>
+    <sheetView topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4095,7 +4271,7 @@
         <v>136</v>
       </c>
       <c r="B66" t="str">
-        <f t="shared" ref="B66:B72" si="2">CONCATENATE(C66,"-",D66,"-",E66)</f>
+        <f t="shared" ref="B66:B82" si="2">CONCATENATE(C66,"-",D66,"-",E66)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C66" t="s">
@@ -4185,7 +4361,7 @@
         <v>141</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(C71,"-",D71,"-",E71)</f>
         <v>action-meeting-create</v>
       </c>
       <c r="C71" t="s">
@@ -4198,194 +4374,194 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" ht="17">
+      <c r="A72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" ref="B72:B81" si="3">CONCATENATE(C72,"-",D72,"-",E72)</f>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="17">
+      <c r="A73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>221</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>221</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>221</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>221</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="3"/>
+        <v>action-sms-create</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>221</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>186</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B82" t="str">
         <f t="shared" si="2"/>
         <v>respond-calculation-numeric</v>
       </c>
-      <c r="C72" t="s">
-        <v>92</v>
-      </c>
-      <c r="D72" t="s">
-        <v>184</v>
-      </c>
-      <c r="E72" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>187</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" ref="B73:B86" si="3">CONCATENATE(C73,"-",D73,"-",E73)</f>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" t="s">
-        <v>184</v>
-      </c>
-      <c r="E73" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C74" t="s">
-        <v>92</v>
-      </c>
-      <c r="D74" t="s">
-        <v>184</v>
-      </c>
-      <c r="E74" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>189</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" t="s">
-        <v>184</v>
-      </c>
-      <c r="E75" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>190</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C76" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76" t="s">
-        <v>184</v>
-      </c>
-      <c r="E76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>191</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C77" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C78" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" t="s">
-        <v>184</v>
-      </c>
-      <c r="E78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C79" t="s">
-        <v>92</v>
-      </c>
-      <c r="D79" t="s">
-        <v>184</v>
-      </c>
-      <c r="E79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>194</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C80" t="s">
-        <v>92</v>
-      </c>
-      <c r="D80" t="s">
-        <v>184</v>
-      </c>
-      <c r="E80" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
-        <v>195</v>
-      </c>
-      <c r="B81" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81" t="s">
-        <v>184</v>
-      </c>
-      <c r="E81" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" t="s">
-        <v>196</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" si="3"/>
-        <v>respond-calculation-numeric</v>
-      </c>
       <c r="C82" t="s">
         <v>92</v>
       </c>
@@ -4398,10 +4574,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B83:B96" si="4">CONCATENATE(C83,"-",D83,"-",E83)</f>
         <v>respond-calculation-numeric</v>
       </c>
       <c r="C83" t="s">
@@ -4416,10 +4592,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>respond-calculation-numeric</v>
       </c>
       <c r="C84" t="s">
@@ -4434,10 +4610,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>respond-calculation-numeric</v>
       </c>
       <c r="C85" t="s">
@@ -4452,10 +4628,10 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>respond-calculation-numeric</v>
       </c>
       <c r="C86" t="s">
@@ -4470,11 +4646,11 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" ref="B87:B103" si="4">CONCATENATE(C87,"-",D87,"-",E87)</f>
-        <v>respond-calculation-conversion</v>
+        <f t="shared" si="4"/>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C87" t="s">
         <v>92</v>
@@ -4483,16 +4659,16 @@
         <v>184</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C88" t="s">
         <v>92</v>
@@ -4501,16 +4677,16 @@
         <v>184</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
@@ -4519,16 +4695,16 @@
         <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C90" t="s">
         <v>92</v>
@@ -4537,16 +4713,16 @@
         <v>184</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C91" t="s">
         <v>92</v>
@@ -4555,16 +4731,16 @@
         <v>184</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C92" t="s">
         <v>92</v>
@@ -4573,16 +4749,16 @@
         <v>184</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C93" t="s">
         <v>92</v>
@@ -4591,16 +4767,16 @@
         <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C94" t="s">
         <v>92</v>
@@ -4609,16 +4785,16 @@
         <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C95" t="s">
         <v>92</v>
@@ -4627,16 +4803,16 @@
         <v>184</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="4"/>
-        <v>respond-calculation-conversion</v>
+        <v>respond-calculation-numeric</v>
       </c>
       <c r="C96" t="s">
         <v>92</v>
@@ -4645,15 +4821,15 @@
         <v>184</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B97:B113" si="5">CONCATENATE(C97,"-",D97,"-",E97)</f>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C97" t="s">
@@ -4668,10 +4844,10 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C98" t="s">
@@ -4686,10 +4862,10 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C99" t="s">
@@ -4704,10 +4880,10 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C100" t="s">
@@ -4722,10 +4898,10 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C101" t="s">
@@ -4740,10 +4916,10 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B102" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>respond-calculation-conversion</v>
       </c>
       <c r="C102" t="s">
@@ -4758,191 +4934,191 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B103" t="str">
-        <f t="shared" si="4"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C103" t="s">
         <v>92</v>
       </c>
       <c r="D103" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B104" t="str">
-        <f t="shared" ref="B104:B126" si="5">CONCATENATE(C104,"-",D104,"-",E104)</f>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <f t="shared" si="5"/>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C104" t="s">
         <v>92</v>
       </c>
       <c r="D104" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>53</v>
+        <v>210</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C105" t="s">
         <v>92</v>
       </c>
       <c r="D105" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C106" t="s">
         <v>92</v>
       </c>
       <c r="D106" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C107" t="s">
         <v>92</v>
       </c>
       <c r="D107" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E107" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C108" t="s">
         <v>92</v>
       </c>
       <c r="D108" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C109" t="s">
         <v>92</v>
       </c>
       <c r="D109" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C110" t="s">
         <v>92</v>
       </c>
       <c r="D110" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-joke-or-riddle</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C111" t="s">
         <v>92</v>
       </c>
       <c r="D111" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>217</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <v>respond-calculation-conversion</v>
       </c>
       <c r="C112" t="s">
         <v>92</v>
       </c>
       <c r="D112" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>55</v>
+        <v>177</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C113" t="s">
         <v>92</v>
@@ -4951,16 +5127,16 @@
         <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>56</v>
+        <v>179</v>
       </c>
       <c r="B114" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" ref="B114:B136" si="6">CONCATENATE(C114,"-",D114,"-",E114)</f>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C114" t="s">
         <v>92</v>
@@ -4969,16 +5145,16 @@
         <v>93</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B115" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C115" t="s">
         <v>92</v>
@@ -4987,16 +5163,16 @@
         <v>93</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B116" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C116" t="s">
         <v>92</v>
@@ -5005,16 +5181,16 @@
         <v>93</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="B117" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C117" t="s">
         <v>92</v>
@@ -5023,16 +5199,16 @@
         <v>93</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="B118" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C118" t="s">
         <v>92</v>
@@ -5041,16 +5217,16 @@
         <v>93</v>
       </c>
       <c r="E118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="B119" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C119" t="s">
         <v>92</v>
@@ -5059,16 +5235,16 @@
         <v>93</v>
       </c>
       <c r="E119" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="B120" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C120" t="s">
         <v>92</v>
@@ -5077,16 +5253,16 @@
         <v>93</v>
       </c>
       <c r="E120" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="B121" t="str">
-        <f t="shared" si="5"/>
-        <v>respond-off-topic-math</v>
+        <f t="shared" si="6"/>
+        <v>respond-off-topic-joke-or-riddle</v>
       </c>
       <c r="C121" t="s">
         <v>92</v>
@@ -5095,15 +5271,15 @@
         <v>93</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C122" t="s">
@@ -5118,10 +5294,10 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B123" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C123" t="s">
@@ -5136,10 +5312,10 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B124" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C124" t="s">
@@ -5154,10 +5330,10 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B125" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C125" t="s">
@@ -5172,10 +5348,10 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B126" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C126" t="s">
@@ -5190,10 +5366,10 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B127" t="str">
-        <f t="shared" ref="B127:B158" si="6">CONCATENATE(C127,"-",D127,"-",E127)</f>
+        <f t="shared" si="6"/>
         <v>respond-off-topic-math</v>
       </c>
       <c r="C127" t="s">
@@ -5208,7 +5384,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B128" t="str">
         <f t="shared" si="6"/>
@@ -5226,7 +5402,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B129" t="str">
         <f t="shared" si="6"/>
@@ -5244,11 +5420,11 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B130" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C130" t="s">
         <v>92</v>
@@ -5257,16 +5433,16 @@
         <v>93</v>
       </c>
       <c r="E130" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B131" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C131" t="s">
         <v>92</v>
@@ -5275,16 +5451,16 @@
         <v>93</v>
       </c>
       <c r="E131" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B132" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C132" t="s">
         <v>92</v>
@@ -5293,16 +5469,16 @@
         <v>93</v>
       </c>
       <c r="E132" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B133" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C133" t="s">
         <v>92</v>
@@ -5311,16 +5487,16 @@
         <v>93</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B134" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C134" t="s">
         <v>92</v>
@@ -5329,16 +5505,16 @@
         <v>93</v>
       </c>
       <c r="E134" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B135" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C135" t="s">
         <v>92</v>
@@ -5347,16 +5523,16 @@
         <v>93</v>
       </c>
       <c r="E135" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B136" t="str">
         <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C136" t="s">
         <v>92</v>
@@ -5365,16 +5541,16 @@
         <v>93</v>
       </c>
       <c r="E136" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B137" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" ref="B137:B168" si="7">CONCATENATE(C137,"-",D137,"-",E137)</f>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C137" t="s">
         <v>92</v>
@@ -5383,16 +5559,16 @@
         <v>93</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="B138" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-nonsense-input</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C138" t="s">
         <v>92</v>
@@ -5401,16 +5577,16 @@
         <v>93</v>
       </c>
       <c r="E138" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B139" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-math</v>
       </c>
       <c r="C139" t="s">
         <v>92</v>
@@ -5419,16 +5595,16 @@
         <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="B140" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C140" t="s">
         <v>92</v>
@@ -5437,16 +5613,16 @@
         <v>93</v>
       </c>
       <c r="E140" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B141" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C141" t="s">
         <v>92</v>
@@ -5455,16 +5631,16 @@
         <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B142" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-philosophy</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C142" t="s">
         <v>92</v>
@@ -5473,16 +5649,16 @@
         <v>93</v>
       </c>
       <c r="E142" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B143" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-science</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C143" t="s">
         <v>92</v>
@@ -5491,16 +5667,16 @@
         <v>93</v>
       </c>
       <c r="E143" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B144" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C144" t="s">
         <v>92</v>
@@ -5509,16 +5685,16 @@
         <v>93</v>
       </c>
       <c r="E144" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B145" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C145" t="s">
         <v>92</v>
@@ -5527,16 +5703,16 @@
         <v>93</v>
       </c>
       <c r="E145" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B146" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C146" t="s">
         <v>92</v>
@@ -5545,16 +5721,16 @@
         <v>93</v>
       </c>
       <c r="E146" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="B147" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C147" t="s">
         <v>92</v>
@@ -5563,16 +5739,16 @@
         <v>93</v>
       </c>
       <c r="E147" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B148" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
       <c r="C148" t="s">
         <v>92</v>
@@ -5581,16 +5757,16 @@
         <v>93</v>
       </c>
       <c r="E148" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B149" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C149" t="s">
         <v>92</v>
@@ -5599,16 +5775,16 @@
         <v>93</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B150" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C150" t="s">
         <v>92</v>
@@ -5617,16 +5793,16 @@
         <v>93</v>
       </c>
       <c r="E150" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B151" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C151" t="s">
         <v>92</v>
@@ -5635,16 +5811,16 @@
         <v>93</v>
       </c>
       <c r="E151" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B152" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-user-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-philosophy</v>
       </c>
       <c r="C152" t="s">
         <v>92</v>
@@ -5653,16 +5829,16 @@
         <v>93</v>
       </c>
       <c r="E152" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="B153" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-science</v>
       </c>
       <c r="C153" t="s">
         <v>92</v>
@@ -5671,16 +5847,16 @@
         <v>93</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B154" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C154" t="s">
         <v>92</v>
@@ -5689,16 +5865,16 @@
         <v>93</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B155" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C155" t="s">
         <v>92</v>
@@ -5707,16 +5883,16 @@
         <v>93</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B156" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C156" t="s">
         <v>92</v>
@@ -5725,16 +5901,16 @@
         <v>93</v>
       </c>
       <c r="E156" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B157" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C157" t="s">
         <v>92</v>
@@ -5743,16 +5919,16 @@
         <v>93</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B158" t="str">
-        <f t="shared" si="6"/>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C158" t="s">
         <v>92</v>
@@ -5761,16 +5937,16 @@
         <v>93</v>
       </c>
       <c r="E158" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B159" t="str">
-        <f t="shared" ref="B159:B160" si="7">CONCATENATE(C159,"-",D159,"-",E159)</f>
-        <v>respond-off-topic-watson-focus</v>
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C159" t="s">
         <v>92</v>
@@ -5779,16 +5955,16 @@
         <v>93</v>
       </c>
       <c r="E159" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B160" t="str">
         <f t="shared" si="7"/>
-        <v>respond-off-topic-watson-focus</v>
+        <v>respond-off-topic-user-focus</v>
       </c>
       <c r="C160" t="s">
         <v>92</v>
@@ -5797,11 +5973,191 @@
         <v>93</v>
       </c>
       <c r="E160" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+      <c r="C161" t="s">
+        <v>92</v>
+      </c>
+      <c r="D161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-user-focus</v>
+      </c>
+      <c r="C162" t="s">
+        <v>92</v>
+      </c>
+      <c r="D162" t="s">
+        <v>93</v>
+      </c>
+      <c r="E162" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C163" t="s">
+        <v>92</v>
+      </c>
+      <c r="D163" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>85</v>
+      </c>
+      <c r="B164" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C164" t="s">
+        <v>92</v>
+      </c>
+      <c r="D164" t="s">
+        <v>93</v>
+      </c>
+      <c r="E164" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>86</v>
+      </c>
+      <c r="B165" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C165" t="s">
+        <v>92</v>
+      </c>
+      <c r="D165" t="s">
+        <v>93</v>
+      </c>
+      <c r="E165" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>87</v>
+      </c>
+      <c r="B166" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C166" t="s">
+        <v>92</v>
+      </c>
+      <c r="D166" t="s">
+        <v>93</v>
+      </c>
+      <c r="E166" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>88</v>
+      </c>
+      <c r="B167" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C167" t="s">
+        <v>92</v>
+      </c>
+      <c r="D167" t="s">
+        <v>93</v>
+      </c>
+      <c r="E167" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>89</v>
+      </c>
+      <c r="B168" t="str">
+        <f t="shared" si="7"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C168" t="s">
+        <v>92</v>
+      </c>
+      <c r="D168" t="s">
+        <v>93</v>
+      </c>
+      <c r="E168" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B169" t="str">
+        <f t="shared" ref="B169:B170" si="8">CONCATENATE(C169,"-",D169,"-",E169)</f>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C169" t="s">
+        <v>92</v>
+      </c>
+      <c r="D169" t="s">
+        <v>93</v>
+      </c>
+      <c r="E169" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>91</v>
+      </c>
+      <c r="B170" t="str">
+        <f t="shared" si="8"/>
+        <v>respond-off-topic-watson-focus</v>
+      </c>
+      <c r="C170" t="s">
+        <v>92</v>
+      </c>
+      <c r="D170" t="s">
+        <v>93</v>
+      </c>
+      <c r="E170" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E106">
+  <autoFilter ref="A1:E116">
     <sortState ref="A2:E163">
       <sortCondition ref="B1:B163"/>
     </sortState>

--- a/nlc/ipa-web-nlc_training.xlsx
+++ b/nlc/ipa-web-nlc_training.xlsx
@@ -1372,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B169"/>
+  <dimension ref="A1:B164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="B166" sqref="B166"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A126" sqref="A122:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2595,480 +2595,430 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="str">
-        <f>original!A123</f>
-        <v>1+1</v>
+        <f>original!A128</f>
+        <v>100 minus 10</v>
       </c>
       <c r="B122" t="str">
-        <f>original!B123</f>
+        <f>original!B128</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="str">
-        <f>original!A124</f>
-        <v>1+1=?</v>
+        <f>original!A129</f>
+        <v>5 plus five</v>
       </c>
       <c r="B123" t="str">
-        <f>original!B124</f>
+        <f>original!B129</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="str">
-        <f>original!A125</f>
-        <v>10 plus 10</v>
+        <f>original!A130</f>
+        <v>a million plus a billion?</v>
       </c>
       <c r="B124" t="str">
-        <f>original!B125</f>
+        <f>original!B130</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="str">
-        <f>original!A126</f>
-        <v>10 + 10 =</v>
+        <f>original!A131</f>
+        <v>infinity</v>
       </c>
       <c r="B125" t="str">
-        <f>original!B126</f>
+        <f>original!B131</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="str">
-        <f>original!A127</f>
-        <v>10+10=?</v>
+        <f>original!A132</f>
+        <v>infinity / infinity</v>
       </c>
       <c r="B126" t="str">
-        <f>original!B127</f>
+        <f>original!B132</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="str">
-        <f>original!A128</f>
-        <v>100 minus 10</v>
+        <f>original!A133</f>
+        <v>infinity divided by zero</v>
       </c>
       <c r="B127" t="str">
-        <f>original!B128</f>
+        <f>original!B133</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="str">
-        <f>original!A129</f>
-        <v>5 plus five</v>
+        <f>original!A134</f>
+        <v>infinity/infinity</v>
       </c>
       <c r="B128" t="str">
-        <f>original!B129</f>
+        <f>original!B134</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="str">
-        <f>original!A130</f>
-        <v>a million plus a billion?</v>
+        <f>original!A135</f>
+        <v>What is * divided by zero?</v>
       </c>
       <c r="B129" t="str">
-        <f>original!B130</f>
+        <f>original!B135</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="str">
-        <f>original!A131</f>
-        <v>infinity</v>
+        <f>original!A136</f>
+        <v>What is 1/0?</v>
       </c>
       <c r="B130" t="str">
-        <f>original!B131</f>
+        <f>original!B136</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="str">
-        <f>original!A132</f>
-        <v>infinity / infinity</v>
+        <f>original!A137</f>
+        <v>What is 1+1?</v>
       </c>
       <c r="B131" t="str">
-        <f>original!B132</f>
+        <f>original!B137</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="str">
-        <f>original!A133</f>
-        <v>infinity divided by zero</v>
+        <f>original!A138</f>
+        <v>What is 2+2</v>
       </c>
       <c r="B132" t="str">
-        <f>original!B133</f>
+        <f>original!B138</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="str">
-        <f>original!A134</f>
-        <v>infinity/infinity</v>
+        <f>original!A139</f>
+        <v>what is nine plus fourteen?</v>
       </c>
       <c r="B133" t="str">
-        <f>original!B134</f>
+        <f>original!B139</f>
         <v>respond-off-topic-math</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="str">
-        <f>original!A135</f>
-        <v>What is * divided by zero?</v>
+        <f>original!A140</f>
+        <v>'agk4'3k'p0f23k</v>
       </c>
       <c r="B134" t="str">
-        <f>original!B135</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B140</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="str">
-        <f>original!A136</f>
-        <v>What is 1/0?</v>
+        <f>original!A141</f>
+        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
       </c>
       <c r="B135" t="str">
-        <f>original!B136</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B141</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="str">
-        <f>original!A137</f>
-        <v>What is 1+1?</v>
+        <f>original!A142</f>
+        <v>292-494f4</v>
       </c>
       <c r="B136" t="str">
-        <f>original!B137</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B142</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="str">
-        <f>original!A138</f>
-        <v>What is 2+2</v>
+        <f>original!A143</f>
+        <v>ajfskdw49urwe0w3ufiwel</v>
       </c>
       <c r="B137" t="str">
-        <f>original!B138</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B143</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="str">
-        <f>original!A139</f>
-        <v>what is nine plus fourteen?</v>
+        <f>original!A144</f>
+        <v>asd f efwefjkw jkl</v>
       </c>
       <c r="B138" t="str">
-        <f>original!B139</f>
-        <v>respond-off-topic-math</v>
+        <f>original!B144</f>
+        <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="str">
-        <f>original!A140</f>
-        <v>'agk4'3k'p0f23k</v>
+        <f>original!A145</f>
+        <v>aslkdjal</v>
       </c>
       <c r="B139" t="str">
-        <f>original!B140</f>
+        <f>original!B145</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="str">
-        <f>original!A141</f>
-        <v>@#$@%#fwweWf wef W#Rjlwf34;</v>
+        <f>original!A146</f>
+        <v>jklfadsk23450923u u9q3uf203 9u</v>
       </c>
       <c r="B140" t="str">
-        <f>original!B141</f>
+        <f>original!B146</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="str">
-        <f>original!A142</f>
-        <v>292-494f4</v>
+        <f>original!A147</f>
+        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
       </c>
       <c r="B141" t="str">
-        <f>original!B142</f>
+        <f>original!B147</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="str">
-        <f>original!A143</f>
-        <v>ajfskdw49urwe0w3ufiwel</v>
+        <f>original!A148</f>
+        <v>blah blah blah</v>
       </c>
       <c r="B142" t="str">
-        <f>original!B143</f>
+        <f>original!B148</f>
         <v>respond-off-topic-nonsense-input</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="str">
-        <f>original!A144</f>
-        <v>asd f efwefjkw jkl</v>
+        <f>original!A149</f>
+        <v>Is god real?</v>
       </c>
       <c r="B143" t="str">
-        <f>original!B144</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B149</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="str">
-        <f>original!A145</f>
-        <v>aslkdjal</v>
+        <f>original!A150</f>
+        <v>What is the meaning of life?</v>
       </c>
       <c r="B144" t="str">
-        <f>original!B145</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B150</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="str">
-        <f>original!A146</f>
-        <v>jklfadsk23450923u u9q3uf203 9u</v>
+        <f>original!A151</f>
+        <v>why do we die?</v>
       </c>
       <c r="B145" t="str">
-        <f>original!B146</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B151</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="str">
-        <f>original!A147</f>
-        <v>sadjka; jakls;djfakls; dfjasd ;flk</v>
+        <f>original!A152</f>
+        <v>why do we live?</v>
       </c>
       <c r="B146" t="str">
-        <f>original!B147</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B152</f>
+        <v>respond-off-topic-philosophy</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="str">
-        <f>original!A148</f>
-        <v>blah blah blah</v>
+        <f>original!A153</f>
+        <v>what is * in light years?</v>
       </c>
       <c r="B147" t="str">
-        <f>original!B148</f>
-        <v>respond-off-topic-nonsense-input</v>
+        <f>original!B153</f>
+        <v>respond-off-topic-science</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="str">
-        <f>original!A149</f>
-        <v>Is god real?</v>
+        <f>original!A154</f>
+        <v>I'm tired</v>
       </c>
       <c r="B148" t="str">
-        <f>original!B149</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B154</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="str">
-        <f>original!A150</f>
-        <v>What is the meaning of life?</v>
+        <f>original!A155</f>
+        <v>I'm drunk</v>
       </c>
       <c r="B149" t="str">
-        <f>original!B150</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B155</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="str">
-        <f>original!A151</f>
-        <v>why do we die?</v>
+        <f>original!A156</f>
+        <v>I'm naked</v>
       </c>
       <c r="B150" t="str">
-        <f>original!B151</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B156</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="str">
-        <f>original!A152</f>
-        <v>why do we live?</v>
+        <f>original!A157</f>
+        <v>Talk dirty to me</v>
       </c>
       <c r="B151" t="str">
-        <f>original!B152</f>
-        <v>respond-off-topic-philosophy</v>
+        <f>original!B157</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="str">
-        <f>original!A153</f>
-        <v>what is * in light years?</v>
+        <f>original!A158</f>
+        <v>I love you</v>
       </c>
       <c r="B152" t="str">
-        <f>original!B153</f>
-        <v>respond-off-topic-science</v>
+        <f>original!B158</f>
+        <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="str">
-        <f>original!A154</f>
-        <v>I'm tired</v>
+        <f>original!A159</f>
+        <v>Ask me a question</v>
       </c>
       <c r="B153" t="str">
-        <f>original!B154</f>
+        <f>original!B159</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="str">
-        <f>original!A155</f>
-        <v>I'm drunk</v>
+        <f>original!A160</f>
+        <v>i had a terrible day!</v>
       </c>
       <c r="B154" t="str">
-        <f>original!B155</f>
+        <f>original!B160</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="str">
-        <f>original!A156</f>
-        <v>I'm naked</v>
+        <f>original!A161</f>
+        <v>I'm sad</v>
       </c>
       <c r="B155" t="str">
-        <f>original!B156</f>
+        <f>original!B161</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="str">
-        <f>original!A157</f>
-        <v>Talk dirty to me</v>
+        <f>original!A162</f>
+        <v>my computer broke!</v>
       </c>
       <c r="B156" t="str">
-        <f>original!B157</f>
+        <f>original!B162</f>
         <v>respond-off-topic-user-focus</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="str">
-        <f>original!A158</f>
-        <v>I love you</v>
+        <f>original!A163</f>
+        <v>Do you have eyes?</v>
       </c>
       <c r="B157" t="str">
-        <f>original!B158</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B163</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="str">
-        <f>original!A159</f>
-        <v>Ask me a question</v>
+        <f>original!A164</f>
+        <v>where is your hardware?</v>
       </c>
       <c r="B158" t="str">
-        <f>original!B159</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B164</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="str">
-        <f>original!A160</f>
-        <v>i had a terrible day!</v>
+        <f>original!A165</f>
+        <v>are you happy?</v>
       </c>
       <c r="B159" t="str">
-        <f>original!B160</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B165</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="str">
-        <f>original!A161</f>
-        <v>I'm sad</v>
+        <f>original!A166</f>
+        <v>Do you follow the three laws of robotics?</v>
       </c>
       <c r="B160" t="str">
-        <f>original!B161</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B166</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="str">
-        <f>original!A162</f>
-        <v>my computer broke!</v>
+        <f>original!A167</f>
+        <v>Do you have feelings?</v>
       </c>
       <c r="B161" t="str">
-        <f>original!B162</f>
-        <v>respond-off-topic-user-focus</v>
+        <f>original!B167</f>
+        <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="str">
-        <f>original!A163</f>
-        <v>Do you have eyes?</v>
+        <f>original!A168</f>
+        <v>How old are you</v>
       </c>
       <c r="B162" t="str">
-        <f>original!B163</f>
+        <f>original!B168</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="str">
-        <f>original!A164</f>
-        <v>where is your hardware?</v>
+        <f>original!A169</f>
+        <v>What is your favorite color?</v>
       </c>
       <c r="B163" t="str">
-        <f>original!B164</f>
+        <f>original!B169</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="str">
-        <f>original!A165</f>
-        <v>are you happy?</v>
-      </c>
-      <c r="B164" t="str">
-        <f>original!B165</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="str">
-        <f>original!A166</f>
-        <v>Do you follow the three laws of robotics?</v>
-      </c>
-      <c r="B165" t="str">
-        <f>original!B166</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="str">
-        <f>original!A167</f>
-        <v>Do you have feelings?</v>
-      </c>
-      <c r="B166" t="str">
-        <f>original!B167</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="str">
-        <f>original!A168</f>
-        <v>How old are you</v>
-      </c>
-      <c r="B167" t="str">
-        <f>original!B168</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="str">
-        <f>original!A169</f>
-        <v>What is your favorite color?</v>
-      </c>
-      <c r="B168" t="str">
-        <f>original!B169</f>
-        <v>respond-off-topic-watson-focus</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="str">
         <f>original!A170</f>
         <v>What's your favourite animal?</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B164" t="str">
         <f>original!B170</f>
         <v>respond-off-topic-watson-focus</v>
       </c>
